--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_22_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_22_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1254700.823245539</v>
+        <v>1248655.548406816</v>
       </c>
     </row>
     <row r="7">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>295.7859910763773</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>115.319892856474</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>335.8151578977945</v>
+        <v>304.5301358581253</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.6331718553215</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
         <v>128.7880777047345</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>111.9805936890401</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>170.5265796494932</v>
       </c>
       <c r="U12" t="n">
-        <v>207.8860038244843</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>65.96664225502639</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>17.86353862900764</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>145.2555273384648</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>102.4439188072657</v>
@@ -1578,25 +1578,25 @@
         <v>78.82444768843243</v>
       </c>
       <c r="S13" t="n">
-        <v>183.7971125400421</v>
+        <v>5.646173066126832</v>
       </c>
       <c r="T13" t="n">
         <v>229.1961435740429</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.8151578977944</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>115.319892856474</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.0213226369596</v>
       </c>
       <c r="V14" t="n">
-        <v>335.8151578977944</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>295.7859910763774</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="X14" t="n">
-        <v>335.8151578977944</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>51.50881322116548</v>
       </c>
     </row>
     <row r="15">
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>117.6962971812177</v>
+        <v>60.03216897657624</v>
       </c>
       <c r="H15" t="n">
         <v>76.18305849007386</v>
       </c>
       <c r="I15" t="n">
-        <v>8.854161465986799</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>170.5265796494932</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.8860038244843</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>171.2391980331116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5965581459434</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.95571636168643</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>78.82444768843243</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T16" t="n">
         <v>229.1961435740429</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>173.287079018283</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="H17" t="n">
-        <v>298.5829100630798</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>53.16006395033763</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>115.319892856474</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>84.03487081680457</v>
       </c>
       <c r="V17" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>164.5382821042804</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>335.8151578977945</v>
@@ -1925,25 +1925,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>117.6962971812177</v>
+        <v>20.21306923878146</v>
       </c>
       <c r="H18" t="n">
-        <v>76.18305849007386</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>8.854161465986799</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1982,13 +1982,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>215.1143303905347</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
         <v>177.5210747552478</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>20.69469956446263</v>
       </c>
       <c r="H19" t="n">
         <v>145.2555273384648</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>78.82444768843243</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>229.1961435740429</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5192252744692</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>335.8151578977944</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>335.8151578977945</v>
+        <v>335.8151578977944</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>298.5829100630798</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>5.947225795045146</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>115.319892856474</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>295.7859910763774</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>83.11283045799605</v>
       </c>
       <c r="E21" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>117.6962971812177</v>
       </c>
       <c r="H21" t="n">
-        <v>76.18305849007386</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>8.854161465986799</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>111.9805936890401</v>
       </c>
       <c r="T21" t="n">
         <v>170.5265796494932</v>
@@ -2219,16 +2219,16 @@
         <v>207.8860038244843</v>
       </c>
       <c r="V21" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>56.08724163645233</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.1961435740429</v>
       </c>
       <c r="U22" t="n">
         <v>282.5312244651214</v>
@@ -2304,10 +2304,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>37.08050919807787</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>145.2435281478125</v>
       </c>
     </row>
     <row r="23">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>335.8151578977945</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>180.4660982199034</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>115.319892856474</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>304.530135858125</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>335.8151578977945</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>150.2783710965517</v>
+        <v>45.91822808186604</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>93.22287741338899</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>135.0820259802211</v>
@@ -2417,7 +2417,7 @@
         <v>76.18305849007386</v>
       </c>
       <c r="I24" t="n">
-        <v>8.854161465986799</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>170.5265796494932</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>207.8860038244843</v>
@@ -2459,7 +2459,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>143.2928487224106</v>
+        <v>106.8388355295235</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -2493,10 +2493,10 @@
         <v>165.5965581459434</v>
       </c>
       <c r="H25" t="n">
-        <v>145.2555273384648</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>102.4439188072657</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>78.82444768843243</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T25" t="n">
         <v>229.1961435740429</v>
@@ -2560,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="E26" t="n">
-        <v>279.8581749607545</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="F26" t="n">
-        <v>335.8151578977946</v>
+        <v>5.947225795045305</v>
       </c>
       <c r="G26" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>298.5829100630798</v>
       </c>
       <c r="I26" t="n">
-        <v>53.16006395033763</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>115.319892856474</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>135.0820259802211</v>
+        <v>14.6860736734988</v>
       </c>
       <c r="F27" t="n">
-        <v>57.78285544536212</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>117.6962971812177</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>76.18305849007386</v>
       </c>
       <c r="I27" t="n">
-        <v>8.854161465986799</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>111.9805936890401</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
@@ -2724,16 +2724,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>80.26413101154689</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>30.71411905970555</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>102.4439188072657</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.1961435740429</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.8151578977946</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>180.4660982199034</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>115.319892856474</v>
       </c>
       <c r="T29" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.0213226369596</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>51.50881322116563</v>
+        <v>335.8151578977945</v>
       </c>
     </row>
     <row r="30">
@@ -2879,19 +2879,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>54.48925120961988</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>117.6962971812177</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>76.18305849007386</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>8.854161465986799</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>111.9805936890401</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>170.5265796494932</v>
+        <v>132.001333199299</v>
       </c>
       <c r="U30" t="n">
         <v>207.8860038244843</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
         <v>177.5210747552478</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>81.75564990375432</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>102.4439188072657</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>3.043869074661438</v>
       </c>
       <c r="S31" t="n">
         <v>183.7971125400421</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>229.1961435740429</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>304.5301358581251</v>
       </c>
       <c r="H32" t="n">
-        <v>51.50881322116548</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>211.7511202595727</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0213226369596</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>335.8151578977945</v>
       </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
     </row>
     <row r="33">
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>57.42367704665349</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>55.65762290805352</v>
       </c>
       <c r="G33" t="n">
-        <v>117.6962971812177</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>76.18305849007386</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>8.854161465986799</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>207.8860038244843</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>220.3146016126436</v>
@@ -3173,10 +3173,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="34">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5965581459434</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>145.2555273384648</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>102.4439188072657</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1961435740429</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>196.9066354789873</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>61.78813302988638</v>
       </c>
     </row>
     <row r="35">
@@ -3277,64 +3277,64 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>335.8151578977945</v>
       </c>
-      <c r="G35" t="n">
+      <c r="W35" t="n">
         <v>335.8151578977945</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>53.16006395033763</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>115.319892856474</v>
-      </c>
-      <c r="T35" t="n">
-        <v>211.7511202595727</v>
-      </c>
-      <c r="U35" t="n">
-        <v>251.3700719077875</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>295.7859910763773</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
     </row>
     <row r="36">
@@ -3350,10 +3350,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>123.1874880556995</v>
@@ -3362,10 +3362,10 @@
         <v>117.6962971812177</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>39.93356562884376</v>
       </c>
       <c r="I36" t="n">
-        <v>8.854161465986799</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>170.5265796494932</v>
       </c>
       <c r="U36" t="n">
-        <v>182.3764610590563</v>
+        <v>207.8860038244843</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="37">
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>49.00763387923067</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5965581459434</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>145.2555273384648</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>102.4439188072657</v>
+        <v>77.59821185382999</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.1961435740429</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="G38" t="n">
-        <v>204.0609539123541</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="H38" t="n">
-        <v>298.5829100630798</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>53.16006395033763</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>253.0213226369596</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>113.668642127302</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3584,22 +3584,22 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>131.6438199683603</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>117.6962971812177</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>76.18305849007386</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>170.5265796494932</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>207.8860038244843</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>176.5494570544269</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5965581459434</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>145.2555273384648</v>
       </c>
       <c r="I40" t="n">
-        <v>87.20705735628079</v>
+        <v>102.4439188072657</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>78.82444768843243</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>130.0828301962667</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>180.4660982199035</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>51.50881322116548</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>115.319892856474</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.0213226369596</v>
       </c>
       <c r="V41" t="n">
-        <v>335.8151578977946</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>117.6962971812177</v>
@@ -3839,7 +3839,7 @@
         <v>76.18305849007386</v>
       </c>
       <c r="I42" t="n">
-        <v>8.854161465986799</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>170.5265796494932</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.8860038244843</v>
       </c>
       <c r="V42" t="n">
-        <v>0.506757155429757</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>170.8282569147622</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>133.0628967521144</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H43" t="n">
-        <v>125.1906977211056</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>102.4439188072657</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T43" t="n">
-        <v>229.1961435740429</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>335.8151578977945</v>
+        <v>295.7859910763773</v>
       </c>
       <c r="F44" t="n">
         <v>335.8151578977945</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>295.7859910763774</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="W44" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>35.55653465661679</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>76.18305849007386</v>
       </c>
       <c r="I45" t="n">
-        <v>8.854161465986799</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>111.9805936890401</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>8.918180359504433</v>
+        <v>170.5265796494932</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>227.816073408046</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>102.4439188072657</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>78.82444768843243</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>229.1961435740429</v>
       </c>
       <c r="U46" t="n">
-        <v>264.4258678419948</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>104.6894004564398</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>366.072442831616</v>
+        <v>705.2796730314087</v>
       </c>
       <c r="C11" t="n">
-        <v>26.86521263182356</v>
+        <v>705.2796730314087</v>
       </c>
       <c r="D11" t="n">
-        <v>26.86521263182356</v>
+        <v>705.2796730314087</v>
       </c>
       <c r="E11" t="n">
-        <v>26.86521263182356</v>
+        <v>366.0724428316161</v>
       </c>
       <c r="F11" t="n">
-        <v>26.86521263182356</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="G11" t="n">
-        <v>26.86521263182356</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="H11" t="n">
-        <v>26.86521263182356</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="I11" t="n">
-        <v>26.86521263182356</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="J11" t="n">
         <v>92.99015204997841</v>
       </c>
       <c r="K11" t="n">
-        <v>225.0743319754416</v>
+        <v>225.0743319754417</v>
       </c>
       <c r="L11" t="n">
-        <v>412.9225820627735</v>
+        <v>412.922582062774</v>
       </c>
       <c r="M11" t="n">
-        <v>642.525089106458</v>
+        <v>642.5250891064586</v>
       </c>
       <c r="N11" t="n">
-        <v>878.8417802023814</v>
+        <v>878.8417802023823</v>
       </c>
       <c r="O11" t="n">
-        <v>1093.321010641007</v>
+        <v>1093.321010641008</v>
       </c>
       <c r="P11" t="n">
-        <v>1253.948421109684</v>
+        <v>1253.948421109685</v>
       </c>
       <c r="Q11" t="n">
         <v>1343.260631591178</v>
@@ -5068,25 +5068,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S11" t="n">
-        <v>1343.260631591178</v>
+        <v>1226.775891332114</v>
       </c>
       <c r="T11" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867899</v>
       </c>
       <c r="U11" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867899</v>
       </c>
       <c r="V11" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867899</v>
       </c>
       <c r="W11" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867899</v>
       </c>
       <c r="X11" t="n">
-        <v>1004.053401391386</v>
+        <v>1012.885870867899</v>
       </c>
       <c r="Y11" t="n">
-        <v>664.8461711915932</v>
+        <v>705.2796730314087</v>
       </c>
     </row>
     <row r="12">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>622.613807458019</v>
+        <v>773.2680378979268</v>
       </c>
       <c r="C12" t="n">
         <v>622.613807458019</v>
@@ -5114,31 +5114,31 @@
         <v>112.7613944056222</v>
       </c>
       <c r="H12" t="n">
-        <v>35.80881007221426</v>
+        <v>35.80881007221428</v>
       </c>
       <c r="I12" t="n">
-        <v>26.86521263182356</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="J12" t="n">
-        <v>54.01717302604602</v>
+        <v>248.7521680057734</v>
       </c>
       <c r="K12" t="n">
-        <v>386.4741793448626</v>
+        <v>345.9598290913232</v>
       </c>
       <c r="L12" t="n">
-        <v>555.4199834081842</v>
+        <v>506.7771773421638</v>
       </c>
       <c r="M12" t="n">
-        <v>755.6682078646089</v>
+        <v>707.0254017985885</v>
       </c>
       <c r="N12" t="n">
-        <v>970.5820261604424</v>
+        <v>921.939220094422</v>
       </c>
       <c r="O12" t="n">
-        <v>1152.743316199522</v>
+        <v>1104.100510133501</v>
       </c>
       <c r="P12" t="n">
-        <v>1286.377318020765</v>
+        <v>1237.734511954745</v>
       </c>
       <c r="Q12" t="n">
         <v>1343.260631591178</v>
@@ -5147,25 +5147,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S12" t="n">
-        <v>1230.148920794168</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T12" t="n">
-        <v>1057.899850441145</v>
+        <v>1171.011561238155</v>
       </c>
       <c r="U12" t="n">
-        <v>847.9139879921704</v>
+        <v>1171.011561238155</v>
       </c>
       <c r="V12" t="n">
-        <v>847.9139879921704</v>
+        <v>1171.011561238155</v>
       </c>
       <c r="W12" t="n">
-        <v>847.9139879921704</v>
+        <v>1104.378589263381</v>
       </c>
       <c r="X12" t="n">
-        <v>658.6069103421821</v>
+        <v>1104.378589263381</v>
       </c>
       <c r="Y12" t="n">
-        <v>658.6069103421821</v>
+        <v>925.0643723388881</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>295.1106517982257</v>
+        <v>285.902730638546</v>
       </c>
       <c r="C13" t="n">
-        <v>295.1106517982257</v>
+        <v>285.902730638546</v>
       </c>
       <c r="D13" t="n">
-        <v>295.1106517982257</v>
+        <v>285.902730638546</v>
       </c>
       <c r="E13" t="n">
-        <v>295.1106517982257</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="F13" t="n">
-        <v>277.0666733850867</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="G13" t="n">
-        <v>277.0666733850867</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="H13" t="n">
         <v>130.3439184977485</v>
       </c>
       <c r="I13" t="n">
-        <v>26.86521263182356</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="J13" t="n">
-        <v>65.33151044026181</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="K13" t="n">
-        <v>94.45082770646684</v>
+        <v>55.98452989802861</v>
       </c>
       <c r="L13" t="n">
-        <v>395.9671467338991</v>
+        <v>112.6859990751629</v>
       </c>
       <c r="M13" t="n">
-        <v>728.4241530527157</v>
+        <v>392.377594728716</v>
       </c>
       <c r="N13" t="n">
-        <v>1059.316577382511</v>
+        <v>723.2700190585117</v>
       </c>
       <c r="O13" t="n">
-        <v>1106.647228118859</v>
+        <v>1022.402219330329</v>
       </c>
       <c r="P13" t="n">
-        <v>1343.260631591178</v>
+        <v>1259.015622802647</v>
       </c>
       <c r="Q13" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="R13" t="n">
-        <v>1263.639977360438</v>
+        <v>1263.639977360439</v>
       </c>
       <c r="S13" t="n">
-        <v>1077.986328330093</v>
+        <v>1257.936772243139</v>
       </c>
       <c r="T13" t="n">
-        <v>846.4750721946958</v>
+        <v>1026.425516107742</v>
       </c>
       <c r="U13" t="n">
-        <v>561.0899969774015</v>
+        <v>1026.425516107742</v>
       </c>
       <c r="V13" t="n">
-        <v>295.1106517982257</v>
+        <v>1026.425516107742</v>
       </c>
       <c r="W13" t="n">
-        <v>295.1106517982257</v>
+        <v>743.0951140389196</v>
       </c>
       <c r="X13" t="n">
-        <v>295.1106517982257</v>
+        <v>509.0147918219027</v>
       </c>
       <c r="Y13" t="n">
-        <v>295.1106517982257</v>
+        <v>285.902730638546</v>
       </c>
     </row>
     <row r="14">
@@ -5281,19 +5281,19 @@
         <v>92.99015204997841</v>
       </c>
       <c r="K14" t="n">
-        <v>225.0743319754416</v>
+        <v>225.0743319754415</v>
       </c>
       <c r="L14" t="n">
-        <v>412.9225820627735</v>
+        <v>412.9225820627732</v>
       </c>
       <c r="M14" t="n">
-        <v>642.525089106458</v>
+        <v>642.5250891064579</v>
       </c>
       <c r="N14" t="n">
-        <v>878.8417802023812</v>
+        <v>878.8417802023815</v>
       </c>
       <c r="O14" t="n">
-        <v>1093.321010641007</v>
+        <v>1093.321010641008</v>
       </c>
       <c r="P14" t="n">
         <v>1253.948421109684</v>
@@ -5305,25 +5305,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S14" t="n">
-        <v>1343.260631591178</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="T14" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="U14" t="n">
-        <v>1343.260631591178</v>
+        <v>757.3087772952119</v>
       </c>
       <c r="V14" t="n">
-        <v>1004.053401391385</v>
+        <v>757.3087772952119</v>
       </c>
       <c r="W14" t="n">
-        <v>705.2796730314083</v>
+        <v>418.1015470954195</v>
       </c>
       <c r="X14" t="n">
-        <v>366.0724428316159</v>
+        <v>78.89431689562707</v>
       </c>
       <c r="Y14" t="n">
-        <v>366.0724428316159</v>
+        <v>26.86521263182356</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>356.0783491903871</v>
+        <v>569.6313554223213</v>
       </c>
       <c r="C15" t="n">
-        <v>356.0783491903871</v>
+        <v>418.9771249824136</v>
       </c>
       <c r="D15" t="n">
-        <v>356.0783491903871</v>
+        <v>288.8881576038939</v>
       </c>
       <c r="E15" t="n">
-        <v>356.0783491903871</v>
+        <v>288.8881576038939</v>
       </c>
       <c r="F15" t="n">
-        <v>231.6465430735189</v>
+        <v>164.4563514870257</v>
       </c>
       <c r="G15" t="n">
-        <v>112.7613944056222</v>
+        <v>103.8177969652315</v>
       </c>
       <c r="H15" t="n">
-        <v>35.80881007221426</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I15" t="n">
         <v>26.86521263182356</v>
@@ -5366,19 +5366,19 @@
         <v>506.7771773421638</v>
       </c>
       <c r="M15" t="n">
-        <v>707.6281239632573</v>
+        <v>707.0254017985885</v>
       </c>
       <c r="N15" t="n">
-        <v>922.5419422590908</v>
+        <v>921.939220094422</v>
       </c>
       <c r="O15" t="n">
-        <v>1104.70323229817</v>
+        <v>1104.100510133501</v>
       </c>
       <c r="P15" t="n">
-        <v>1238.337234119414</v>
+        <v>1237.734511954745</v>
       </c>
       <c r="Q15" t="n">
-        <v>1295.220547689826</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="R15" t="n">
         <v>1343.260631591178</v>
@@ -5387,22 +5387,22 @@
         <v>1343.260631591178</v>
       </c>
       <c r="T15" t="n">
-        <v>1171.011561238154</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="U15" t="n">
-        <v>1171.011561238154</v>
+        <v>1133.274769142204</v>
       </c>
       <c r="V15" t="n">
-        <v>948.4715596092215</v>
+        <v>910.734767513271</v>
       </c>
       <c r="W15" t="n">
-        <v>718.3543137425083</v>
+        <v>910.734767513271</v>
       </c>
       <c r="X15" t="n">
-        <v>529.0472360925201</v>
+        <v>721.4276898632827</v>
       </c>
       <c r="Y15" t="n">
-        <v>356.0783491903871</v>
+        <v>721.4276898632827</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.1344632842917</v>
+        <v>340.0326089425168</v>
       </c>
       <c r="C16" t="n">
-        <v>194.1344632842917</v>
+        <v>340.0326089425168</v>
       </c>
       <c r="D16" t="n">
-        <v>194.1344632842917</v>
+        <v>184.3994958450316</v>
       </c>
       <c r="E16" t="n">
-        <v>194.1344632842917</v>
+        <v>28.8406837042341</v>
       </c>
       <c r="F16" t="n">
-        <v>194.1344632842917</v>
+        <v>28.8406837042341</v>
       </c>
       <c r="G16" t="n">
-        <v>26.86521263182356</v>
+        <v>28.8406837042341</v>
       </c>
       <c r="H16" t="n">
         <v>26.86521263182356</v>
@@ -5439,49 +5439,49 @@
         <v>65.33151044026181</v>
       </c>
       <c r="K16" t="n">
-        <v>259.3059004491482</v>
+        <v>94.45082770646684</v>
       </c>
       <c r="L16" t="n">
-        <v>566.9332986870591</v>
+        <v>151.1522968836011</v>
       </c>
       <c r="M16" t="n">
-        <v>628.8349317609459</v>
+        <v>483.6093032024177</v>
       </c>
       <c r="N16" t="n">
-        <v>959.7273560907416</v>
+        <v>814.5017275322134</v>
       </c>
       <c r="O16" t="n">
-        <v>1022.402219330328</v>
+        <v>1113.63392780403</v>
       </c>
       <c r="P16" t="n">
-        <v>1259.015622802646</v>
+        <v>1259.015622802647</v>
       </c>
       <c r="Q16" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="R16" t="n">
-        <v>1343.260631591178</v>
+        <v>1263.639977360438</v>
       </c>
       <c r="S16" t="n">
-        <v>1343.260631591178</v>
+        <v>1077.986328330093</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.749375455781</v>
+        <v>846.4750721946958</v>
       </c>
       <c r="U16" t="n">
-        <v>826.3643002384865</v>
+        <v>846.4750721946958</v>
       </c>
       <c r="V16" t="n">
-        <v>826.3643002384865</v>
+        <v>846.4750721946958</v>
       </c>
       <c r="W16" t="n">
-        <v>651.3268466846653</v>
+        <v>563.1446701258735</v>
       </c>
       <c r="X16" t="n">
-        <v>417.2465244676483</v>
+        <v>563.1446701258735</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.1344632842917</v>
+        <v>340.0326089425168</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.1611459787099</v>
+        <v>705.2796730314085</v>
       </c>
       <c r="C17" t="n">
-        <v>382.1611459787099</v>
+        <v>705.2796730314085</v>
       </c>
       <c r="D17" t="n">
-        <v>382.1611459787099</v>
+        <v>705.2796730314085</v>
       </c>
       <c r="E17" t="n">
-        <v>382.1611459787099</v>
+        <v>705.2796730314085</v>
       </c>
       <c r="F17" t="n">
-        <v>382.1611459787099</v>
+        <v>366.072442831616</v>
       </c>
       <c r="G17" t="n">
-        <v>382.1611459787099</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H17" t="n">
-        <v>80.56224692509389</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I17" t="n">
         <v>26.86521263182356</v>
@@ -5542,25 +5542,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S17" t="n">
-        <v>1226.775891332113</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T17" t="n">
-        <v>1226.775891332113</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="U17" t="n">
-        <v>1226.775891332113</v>
+        <v>1044.486903231201</v>
       </c>
       <c r="V17" t="n">
-        <v>887.5686611323209</v>
+        <v>1044.486903231201</v>
       </c>
       <c r="W17" t="n">
-        <v>721.3683761785023</v>
+        <v>1044.486903231201</v>
       </c>
       <c r="X17" t="n">
-        <v>382.1611459787099</v>
+        <v>705.2796730314085</v>
       </c>
       <c r="Y17" t="n">
-        <v>382.1611459787099</v>
+        <v>705.2796730314085</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>622.613807458019</v>
+        <v>197.9366847270662</v>
       </c>
       <c r="C18" t="n">
-        <v>622.613807458019</v>
+        <v>47.28245428715837</v>
       </c>
       <c r="D18" t="n">
-        <v>492.5248400794994</v>
+        <v>47.28245428715837</v>
       </c>
       <c r="E18" t="n">
-        <v>356.0783491903871</v>
+        <v>47.28245428715837</v>
       </c>
       <c r="F18" t="n">
-        <v>231.6465430735189</v>
+        <v>47.28245428715837</v>
       </c>
       <c r="G18" t="n">
-        <v>112.7613944056222</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H18" t="n">
-        <v>35.80881007221426</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I18" t="n">
         <v>26.86521263182356</v>
@@ -5597,13 +5597,13 @@
         <v>54.01717302604602</v>
       </c>
       <c r="K18" t="n">
-        <v>151.2248341115958</v>
+        <v>346.5625512559923</v>
       </c>
       <c r="L18" t="n">
-        <v>312.0421823624364</v>
+        <v>507.3798995068328</v>
       </c>
       <c r="M18" t="n">
-        <v>644.4991886812529</v>
+        <v>707.6281239632575</v>
       </c>
       <c r="N18" t="n">
         <v>922.541942259091</v>
@@ -5630,16 +5630,16 @@
         <v>1171.011561238155</v>
       </c>
       <c r="V18" t="n">
-        <v>953.724358823473</v>
+        <v>948.4715596092217</v>
       </c>
       <c r="W18" t="n">
-        <v>953.724358823473</v>
+        <v>718.3543137425086</v>
       </c>
       <c r="X18" t="n">
-        <v>953.724358823473</v>
+        <v>529.0472360925203</v>
       </c>
       <c r="Y18" t="n">
-        <v>774.4101418989803</v>
+        <v>349.7330191680275</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>277.0666733850867</v>
+        <v>623.8086413503834</v>
       </c>
       <c r="C19" t="n">
-        <v>277.0666733850867</v>
+        <v>453.6035234163726</v>
       </c>
       <c r="D19" t="n">
-        <v>277.0666733850867</v>
+        <v>297.9704103188873</v>
       </c>
       <c r="E19" t="n">
-        <v>277.0666733850867</v>
+        <v>297.9704103188873</v>
       </c>
       <c r="F19" t="n">
-        <v>277.0666733850867</v>
+        <v>297.9704103188873</v>
       </c>
       <c r="G19" t="n">
         <v>277.0666733850867</v>
@@ -5673,52 +5673,52 @@
         <v>26.86521263182356</v>
       </c>
       <c r="J19" t="n">
-        <v>65.33151044026181</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="K19" t="n">
-        <v>94.45082770646684</v>
+        <v>55.9845298980286</v>
       </c>
       <c r="L19" t="n">
-        <v>151.1522968836011</v>
+        <v>352.6697335806352</v>
       </c>
       <c r="M19" t="n">
-        <v>483.6093032024177</v>
+        <v>685.1267398994518</v>
       </c>
       <c r="N19" t="n">
-        <v>723.2700190585113</v>
+        <v>1016.019164229248</v>
       </c>
       <c r="O19" t="n">
-        <v>1022.402219330328</v>
+        <v>1315.151364501064</v>
       </c>
       <c r="P19" t="n">
-        <v>1259.015622802647</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="Q19" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="R19" t="n">
-        <v>1343.260631591178</v>
+        <v>1263.639977360438</v>
       </c>
       <c r="S19" t="n">
-        <v>1343.260631591178</v>
+        <v>1263.639977360438</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.749375455781</v>
+        <v>1032.128721225041</v>
       </c>
       <c r="U19" t="n">
-        <v>826.3764206330849</v>
+        <v>1032.128721225041</v>
       </c>
       <c r="V19" t="n">
-        <v>560.3970754539091</v>
+        <v>1032.128721225041</v>
       </c>
       <c r="W19" t="n">
-        <v>277.0666733850867</v>
+        <v>1032.128721225041</v>
       </c>
       <c r="X19" t="n">
-        <v>277.0666733850867</v>
+        <v>1032.128721225041</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.0666733850867</v>
+        <v>809.0166600416846</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>705.2796730314085</v>
+        <v>673.6786406681058</v>
       </c>
       <c r="C20" t="n">
-        <v>705.2796730314085</v>
+        <v>673.6786406681058</v>
       </c>
       <c r="D20" t="n">
-        <v>366.072442831616</v>
+        <v>673.6786406681058</v>
       </c>
       <c r="E20" t="n">
-        <v>366.072442831616</v>
+        <v>673.6786406681058</v>
       </c>
       <c r="F20" t="n">
-        <v>366.072442831616</v>
+        <v>673.6786406681058</v>
       </c>
       <c r="G20" t="n">
-        <v>26.86521263182356</v>
+        <v>334.4714104683134</v>
       </c>
       <c r="H20" t="n">
-        <v>26.86521263182356</v>
+        <v>32.87251141469744</v>
       </c>
       <c r="I20" t="n">
         <v>26.86521263182356</v>
@@ -5755,16 +5755,16 @@
         <v>92.99015204997841</v>
       </c>
       <c r="K20" t="n">
-        <v>225.0743319754415</v>
+        <v>225.0743319754416</v>
       </c>
       <c r="L20" t="n">
-        <v>412.9225820627734</v>
+        <v>412.9225820627735</v>
       </c>
       <c r="M20" t="n">
         <v>642.525089106458</v>
       </c>
       <c r="N20" t="n">
-        <v>878.8417802023814</v>
+        <v>878.8417802023812</v>
       </c>
       <c r="O20" t="n">
         <v>1093.321010641007</v>
@@ -5779,25 +5779,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S20" t="n">
-        <v>1343.260631591178</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="T20" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="U20" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="V20" t="n">
-        <v>1044.486903231201</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="W20" t="n">
-        <v>705.2796730314085</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="X20" t="n">
-        <v>705.2796730314085</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="Y20" t="n">
-        <v>705.2796730314085</v>
+        <v>1012.885870867898</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>492.5248400794994</v>
+        <v>516.8034366267161</v>
       </c>
       <c r="C21" t="n">
-        <v>492.5248400794994</v>
+        <v>366.1492061868083</v>
       </c>
       <c r="D21" t="n">
-        <v>492.5248400794994</v>
+        <v>282.1968521888325</v>
       </c>
       <c r="E21" t="n">
-        <v>356.0783491903871</v>
+        <v>145.7503612997203</v>
       </c>
       <c r="F21" t="n">
-        <v>231.6465430735189</v>
+        <v>145.7503612997203</v>
       </c>
       <c r="G21" t="n">
-        <v>112.7613944056222</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H21" t="n">
-        <v>35.80881007221426</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I21" t="n">
         <v>26.86521263182356</v>
       </c>
       <c r="J21" t="n">
-        <v>54.01717302604602</v>
+        <v>248.7521680057734</v>
       </c>
       <c r="K21" t="n">
-        <v>151.2248341115958</v>
+        <v>345.9598290913232</v>
       </c>
       <c r="L21" t="n">
-        <v>312.0421823624364</v>
+        <v>555.419983408184</v>
       </c>
       <c r="M21" t="n">
-        <v>512.2904068188611</v>
+        <v>755.6682078646087</v>
       </c>
       <c r="N21" t="n">
-        <v>727.2042251146946</v>
+        <v>970.5820261604422</v>
       </c>
       <c r="O21" t="n">
-        <v>909.3655151537739</v>
+        <v>1152.743316199521</v>
       </c>
       <c r="P21" t="n">
-        <v>1042.999516975018</v>
+        <v>1286.377318020765</v>
       </c>
       <c r="Q21" t="n">
-        <v>1295.220547689827</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="R21" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="S21" t="n">
-        <v>1343.260631591178</v>
+        <v>1230.148920794168</v>
       </c>
       <c r="T21" t="n">
-        <v>1171.011561238155</v>
+        <v>1057.899850441144</v>
       </c>
       <c r="U21" t="n">
-        <v>961.0256987891805</v>
+        <v>847.9139879921702</v>
       </c>
       <c r="V21" t="n">
-        <v>738.4856971602476</v>
+        <v>847.9139879921702</v>
       </c>
       <c r="W21" t="n">
-        <v>738.4856971602476</v>
+        <v>847.9139879921702</v>
       </c>
       <c r="X21" t="n">
-        <v>549.1786195102593</v>
+        <v>847.9139879921702</v>
       </c>
       <c r="Y21" t="n">
-        <v>492.5248400794994</v>
+        <v>668.5997710676775</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>285.902730638546</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="C22" t="n">
-        <v>285.902730638546</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="D22" t="n">
-        <v>285.902730638546</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="E22" t="n">
         <v>130.3439184977485</v>
@@ -5913,22 +5913,22 @@
         <v>65.33151044026181</v>
       </c>
       <c r="K22" t="n">
-        <v>94.45082770646684</v>
+        <v>259.3059004491482</v>
       </c>
       <c r="L22" t="n">
-        <v>402.0782259443777</v>
+        <v>566.9332986870591</v>
       </c>
       <c r="M22" t="n">
-        <v>463.9798590182645</v>
+        <v>899.3903050058756</v>
       </c>
       <c r="N22" t="n">
-        <v>723.2700190585113</v>
+        <v>1016.019164229247</v>
       </c>
       <c r="O22" t="n">
-        <v>1022.402219330328</v>
+        <v>1315.151364501064</v>
       </c>
       <c r="P22" t="n">
-        <v>1259.015622802647</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="Q22" t="n">
         <v>1343.260631591178</v>
@@ -5940,22 +5940,22 @@
         <v>1343.260631591178</v>
       </c>
       <c r="T22" t="n">
-        <v>1343.260631591178</v>
+        <v>1111.749375455781</v>
       </c>
       <c r="U22" t="n">
-        <v>1057.875556373884</v>
+        <v>826.3643002384865</v>
       </c>
       <c r="V22" t="n">
-        <v>791.8962111947079</v>
+        <v>560.3849550593108</v>
       </c>
       <c r="W22" t="n">
-        <v>508.5658091258856</v>
+        <v>277.0545529904884</v>
       </c>
       <c r="X22" t="n">
-        <v>471.1107493298473</v>
+        <v>277.0545529904884</v>
       </c>
       <c r="Y22" t="n">
-        <v>471.1107493298473</v>
+        <v>130.3439184977485</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>209.1542007327361</v>
+        <v>366.072442831616</v>
       </c>
       <c r="C23" t="n">
-        <v>209.1542007327361</v>
+        <v>366.072442831616</v>
       </c>
       <c r="D23" t="n">
-        <v>209.1542007327361</v>
+        <v>366.072442831616</v>
       </c>
       <c r="E23" t="n">
-        <v>209.1542007327361</v>
+        <v>366.072442831616</v>
       </c>
       <c r="F23" t="n">
         <v>26.86521263182356</v>
@@ -5989,22 +5989,22 @@
         <v>26.86521263182356</v>
       </c>
       <c r="J23" t="n">
-        <v>92.99015204997838</v>
+        <v>92.99015204997841</v>
       </c>
       <c r="K23" t="n">
         <v>225.0743319754415</v>
       </c>
       <c r="L23" t="n">
-        <v>412.9225820627735</v>
+        <v>412.9225820627734</v>
       </c>
       <c r="M23" t="n">
-        <v>642.5250891064582</v>
+        <v>642.525089106458</v>
       </c>
       <c r="N23" t="n">
-        <v>878.8417802023818</v>
+        <v>878.8417802023814</v>
       </c>
       <c r="O23" t="n">
-        <v>1093.321010641008</v>
+        <v>1093.321010641007</v>
       </c>
       <c r="P23" t="n">
         <v>1253.948421109684</v>
@@ -6019,22 +6019,22 @@
         <v>1226.775891332113</v>
       </c>
       <c r="T23" t="n">
-        <v>1226.775891332113</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="U23" t="n">
-        <v>1226.775891332113</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="V23" t="n">
-        <v>1226.775891332113</v>
+        <v>705.2796730314085</v>
       </c>
       <c r="W23" t="n">
-        <v>1226.775891332113</v>
+        <v>705.2796730314085</v>
       </c>
       <c r="X23" t="n">
-        <v>887.5686611323209</v>
+        <v>705.2796730314085</v>
       </c>
       <c r="Y23" t="n">
-        <v>548.3614309325285</v>
+        <v>366.072442831616</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>586.6893627192862</v>
+        <v>634.2354730790164</v>
       </c>
       <c r="C24" t="n">
-        <v>586.6893627192862</v>
+        <v>483.5812426391087</v>
       </c>
       <c r="D24" t="n">
-        <v>492.5248400794994</v>
+        <v>483.5812426391087</v>
       </c>
       <c r="E24" t="n">
-        <v>356.0783491903871</v>
+        <v>347.1347517499964</v>
       </c>
       <c r="F24" t="n">
-        <v>231.6465430735189</v>
+        <v>222.7029456331282</v>
       </c>
       <c r="G24" t="n">
-        <v>112.7613944056222</v>
+        <v>103.8177969652315</v>
       </c>
       <c r="H24" t="n">
-        <v>35.80881007221426</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I24" t="n">
         <v>26.86521263182356</v>
@@ -6071,22 +6071,22 @@
         <v>54.01717302604602</v>
       </c>
       <c r="K24" t="n">
-        <v>151.2248341115958</v>
+        <v>386.4741793448626</v>
       </c>
       <c r="L24" t="n">
-        <v>312.0421823624364</v>
+        <v>547.2915275957032</v>
       </c>
       <c r="M24" t="n">
-        <v>512.2904068188611</v>
+        <v>747.5397520521278</v>
       </c>
       <c r="N24" t="n">
-        <v>727.2042251146946</v>
+        <v>962.4535703479613</v>
       </c>
       <c r="O24" t="n">
-        <v>909.3655151537739</v>
+        <v>1144.614860387041</v>
       </c>
       <c r="P24" t="n">
-        <v>1042.999516975018</v>
+        <v>1278.248862208284</v>
       </c>
       <c r="Q24" t="n">
         <v>1343.260631591178</v>
@@ -6098,22 +6098,22 @@
         <v>1343.260631591178</v>
       </c>
       <c r="T24" t="n">
-        <v>1171.011561238155</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="U24" t="n">
-        <v>961.0256987891805</v>
+        <v>1133.274769142204</v>
       </c>
       <c r="V24" t="n">
-        <v>738.4856971602476</v>
+        <v>910.734767513271</v>
       </c>
       <c r="W24" t="n">
-        <v>738.4856971602476</v>
+        <v>680.6175216465579</v>
       </c>
       <c r="X24" t="n">
-        <v>738.4856971602476</v>
+        <v>680.6175216465579</v>
       </c>
       <c r="Y24" t="n">
-        <v>738.4856971602476</v>
+        <v>680.6175216465579</v>
       </c>
     </row>
     <row r="25">
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>641.1562815471855</v>
+        <v>561.0899969774015</v>
       </c>
       <c r="C25" t="n">
-        <v>641.1562815471855</v>
+        <v>561.0899969774015</v>
       </c>
       <c r="D25" t="n">
-        <v>496.4160303124273</v>
+        <v>453.1719812910141</v>
       </c>
       <c r="E25" t="n">
-        <v>340.8572181716298</v>
+        <v>297.6131691502166</v>
       </c>
       <c r="F25" t="n">
-        <v>340.8572181716298</v>
+        <v>297.6131691502166</v>
       </c>
       <c r="G25" t="n">
-        <v>173.5879675191617</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="H25" t="n">
-        <v>26.86521263182356</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="I25" t="n">
         <v>26.86521263182356</v>
       </c>
       <c r="J25" t="n">
-        <v>65.33151044026181</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="K25" t="n">
-        <v>94.45082770646684</v>
+        <v>55.9845298980286</v>
       </c>
       <c r="L25" t="n">
-        <v>402.0782259443777</v>
+        <v>352.6697335806352</v>
       </c>
       <c r="M25" t="n">
-        <v>734.5352322631943</v>
+        <v>685.1267398994518</v>
       </c>
       <c r="N25" t="n">
-        <v>1065.42765659299</v>
+        <v>1016.019164229248</v>
       </c>
       <c r="O25" t="n">
-        <v>1112.758307329338</v>
+        <v>1315.151364501064</v>
       </c>
       <c r="P25" t="n">
         <v>1343.260631591178</v>
@@ -6171,28 +6171,28 @@
         <v>1343.260631591178</v>
       </c>
       <c r="R25" t="n">
-        <v>1343.260631591178</v>
+        <v>1263.639977360438</v>
       </c>
       <c r="S25" t="n">
-        <v>1343.260631591178</v>
+        <v>1077.986328330093</v>
       </c>
       <c r="T25" t="n">
-        <v>1111.749375455781</v>
+        <v>846.4750721946958</v>
       </c>
       <c r="U25" t="n">
-        <v>826.3643002384867</v>
+        <v>561.0899969774015</v>
       </c>
       <c r="V25" t="n">
-        <v>826.3643002384867</v>
+        <v>561.0899969774015</v>
       </c>
       <c r="W25" t="n">
-        <v>826.3643002384867</v>
+        <v>561.0899969774015</v>
       </c>
       <c r="X25" t="n">
-        <v>826.3643002384867</v>
+        <v>561.0899969774015</v>
       </c>
       <c r="Y25" t="n">
-        <v>826.3643002384867</v>
+        <v>561.0899969774015</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="C26" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="D26" t="n">
-        <v>1343.260631591178</v>
+        <v>673.678640668106</v>
       </c>
       <c r="E26" t="n">
-        <v>1060.575606378295</v>
+        <v>334.4714104683136</v>
       </c>
       <c r="F26" t="n">
-        <v>721.3683761785024</v>
+        <v>328.4641116854395</v>
       </c>
       <c r="G26" t="n">
-        <v>382.1611459787099</v>
+        <v>328.4641116854395</v>
       </c>
       <c r="H26" t="n">
-        <v>80.5622469250939</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I26" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J26" t="n">
-        <v>92.99015204997841</v>
+        <v>92.99015204997838</v>
       </c>
       <c r="K26" t="n">
-        <v>225.0743319754416</v>
+        <v>225.0743319754415</v>
       </c>
       <c r="L26" t="n">
         <v>412.9225820627735</v>
       </c>
       <c r="M26" t="n">
-        <v>642.5250891064584</v>
+        <v>642.5250891064582</v>
       </c>
       <c r="N26" t="n">
-        <v>878.841780202382</v>
+        <v>878.8417802023818</v>
       </c>
       <c r="O26" t="n">
         <v>1093.321010641008</v>
       </c>
       <c r="P26" t="n">
-        <v>1253.948421109685</v>
+        <v>1253.948421109684</v>
       </c>
       <c r="Q26" t="n">
         <v>1343.260631591178</v>
@@ -6253,25 +6253,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S26" t="n">
-        <v>1343.260631591178</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="T26" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="U26" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="V26" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="W26" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="X26" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="Y26" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867898</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>349.5069702811042</v>
+        <v>388.191593925055</v>
       </c>
       <c r="C27" t="n">
-        <v>349.5069702811042</v>
+        <v>237.5373634851472</v>
       </c>
       <c r="D27" t="n">
-        <v>349.5069702811042</v>
+        <v>237.5373634851472</v>
       </c>
       <c r="E27" t="n">
-        <v>213.0604793919919</v>
+        <v>222.7029456331282</v>
       </c>
       <c r="F27" t="n">
-        <v>154.693958740111</v>
+        <v>222.7029456331282</v>
       </c>
       <c r="G27" t="n">
-        <v>35.80881007221428</v>
+        <v>103.8177969652315</v>
       </c>
       <c r="H27" t="n">
-        <v>35.80881007221428</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I27" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J27" t="n">
-        <v>125.7553160038182</v>
+        <v>54.01717302604602</v>
       </c>
       <c r="K27" t="n">
-        <v>222.9629770893679</v>
+        <v>151.2248341115958</v>
       </c>
       <c r="L27" t="n">
-        <v>555.4199834081846</v>
+        <v>312.0421823624364</v>
       </c>
       <c r="M27" t="n">
-        <v>755.6682078646094</v>
+        <v>512.2904068188611</v>
       </c>
       <c r="N27" t="n">
-        <v>970.5820261604429</v>
+        <v>727.2042251146946</v>
       </c>
       <c r="O27" t="n">
-        <v>1152.743316199522</v>
+        <v>909.3655151537739</v>
       </c>
       <c r="P27" t="n">
-        <v>1286.377318020766</v>
+        <v>1042.999516975018</v>
       </c>
       <c r="Q27" t="n">
         <v>1343.260631591178</v>
@@ -6332,25 +6332,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S27" t="n">
-        <v>1343.260631591178</v>
+        <v>1230.148920794168</v>
       </c>
       <c r="T27" t="n">
-        <v>1343.260631591178</v>
+        <v>1230.148920794168</v>
       </c>
       <c r="U27" t="n">
-        <v>1133.274769142204</v>
+        <v>1020.163058345194</v>
       </c>
       <c r="V27" t="n">
-        <v>910.7347675132714</v>
+        <v>797.6230567162609</v>
       </c>
       <c r="W27" t="n">
-        <v>680.6175216465583</v>
+        <v>567.5058108495477</v>
       </c>
       <c r="X27" t="n">
-        <v>680.6175216465583</v>
+        <v>567.5058108495477</v>
       </c>
       <c r="Y27" t="n">
-        <v>501.3033047220655</v>
+        <v>388.191593925055</v>
       </c>
     </row>
     <row r="28">
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>589.3371356137604</v>
+        <v>642.7653243566133</v>
       </c>
       <c r="C28" t="n">
-        <v>419.1320176797497</v>
+        <v>472.5602064226025</v>
       </c>
       <c r="D28" t="n">
-        <v>263.4989045822644</v>
+        <v>316.9270933251173</v>
       </c>
       <c r="E28" t="n">
-        <v>107.9400924414669</v>
+        <v>161.3682811843198</v>
       </c>
       <c r="F28" t="n">
-        <v>26.86521263182357</v>
+        <v>161.3682811843198</v>
       </c>
       <c r="G28" t="n">
-        <v>26.86521263182357</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="H28" t="n">
-        <v>26.86521263182357</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="I28" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J28" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="K28" t="n">
-        <v>55.98452989802861</v>
+        <v>55.9845298980286</v>
       </c>
       <c r="L28" t="n">
-        <v>363.6119281359395</v>
+        <v>352.6697335806352</v>
       </c>
       <c r="M28" t="n">
-        <v>425.5135612098263</v>
+        <v>685.1267398994518</v>
       </c>
       <c r="N28" t="n">
-        <v>723.2700190585117</v>
+        <v>1016.019164229248</v>
       </c>
       <c r="O28" t="n">
-        <v>1022.402219330329</v>
+        <v>1315.151364501064</v>
       </c>
       <c r="P28" t="n">
-        <v>1259.015622802647</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="Q28" t="n">
         <v>1343.260631591178</v>
@@ -6411,25 +6411,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S28" t="n">
-        <v>1343.260631591178</v>
+        <v>1157.606982560832</v>
       </c>
       <c r="T28" t="n">
-        <v>1343.260631591178</v>
+        <v>926.0957264254356</v>
       </c>
       <c r="U28" t="n">
-        <v>1057.875556373884</v>
+        <v>926.0957264254356</v>
       </c>
       <c r="V28" t="n">
-        <v>1057.875556373884</v>
+        <v>926.0957264254356</v>
       </c>
       <c r="W28" t="n">
-        <v>774.5451543050617</v>
+        <v>642.7653243566133</v>
       </c>
       <c r="X28" t="n">
-        <v>774.5451543050617</v>
+        <v>642.7653243566133</v>
       </c>
       <c r="Y28" t="n">
-        <v>774.5451543050617</v>
+        <v>642.7653243566133</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>366.0724428316161</v>
+        <v>548.3614309325285</v>
       </c>
       <c r="C29" t="n">
-        <v>366.0724428316161</v>
+        <v>209.1542007327361</v>
       </c>
       <c r="D29" t="n">
-        <v>366.0724428316161</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="E29" t="n">
-        <v>366.0724428316161</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="F29" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="G29" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H29" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I29" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J29" t="n">
-        <v>92.99015204997839</v>
+        <v>92.99015204997838</v>
       </c>
       <c r="K29" t="n">
         <v>225.0743319754415</v>
@@ -6490,25 +6490,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S29" t="n">
-        <v>1226.775891332114</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="T29" t="n">
-        <v>1012.885870867899</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="U29" t="n">
-        <v>757.3087772952124</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="V29" t="n">
-        <v>757.3087772952124</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="W29" t="n">
-        <v>757.3087772952124</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="X29" t="n">
-        <v>757.3087772952124</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="Y29" t="n">
-        <v>705.2796730314087</v>
+        <v>887.5686611323209</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>286.6861907600036</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="C30" t="n">
-        <v>286.6861907600036</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="D30" t="n">
-        <v>286.6861907600036</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="E30" t="n">
-        <v>231.6465430735189</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="F30" t="n">
-        <v>231.6465430735189</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="G30" t="n">
-        <v>112.7613944056222</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H30" t="n">
-        <v>35.80881007221428</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I30" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J30" t="n">
-        <v>248.7521680057734</v>
+        <v>54.01717302604602</v>
       </c>
       <c r="K30" t="n">
-        <v>345.9598290913232</v>
+        <v>151.2248341115958</v>
       </c>
       <c r="L30" t="n">
-        <v>506.7771773421638</v>
+        <v>312.0421823624364</v>
       </c>
       <c r="M30" t="n">
-        <v>707.0254017985885</v>
+        <v>512.2904068188611</v>
       </c>
       <c r="N30" t="n">
-        <v>921.939220094422</v>
+        <v>727.2042251146946</v>
       </c>
       <c r="O30" t="n">
-        <v>1152.743316199522</v>
+        <v>909.3655151537739</v>
       </c>
       <c r="P30" t="n">
-        <v>1286.377318020766</v>
+        <v>1042.999516975018</v>
       </c>
       <c r="Q30" t="n">
         <v>1343.260631591178</v>
@@ -6569,25 +6569,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S30" t="n">
-        <v>1230.148920794168</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T30" t="n">
-        <v>1057.899850441145</v>
+        <v>1209.925951591886</v>
       </c>
       <c r="U30" t="n">
-        <v>847.9139879921709</v>
+        <v>999.940089142912</v>
       </c>
       <c r="V30" t="n">
-        <v>847.9139879921709</v>
+        <v>777.4000875139791</v>
       </c>
       <c r="W30" t="n">
-        <v>617.7967421254577</v>
+        <v>547.282841647266</v>
       </c>
       <c r="X30" t="n">
-        <v>617.7967421254577</v>
+        <v>357.9757639972777</v>
       </c>
       <c r="Y30" t="n">
-        <v>438.482525200965</v>
+        <v>178.6615470727849</v>
       </c>
     </row>
     <row r="31">
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>383.1305009810061</v>
+        <v>182.4983257293088</v>
       </c>
       <c r="C31" t="n">
-        <v>212.9253830469953</v>
+        <v>182.4983257293088</v>
       </c>
       <c r="D31" t="n">
-        <v>212.9253830469953</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="E31" t="n">
-        <v>130.3439184977485</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="F31" t="n">
-        <v>130.3439184977485</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="G31" t="n">
-        <v>130.3439184977485</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H31" t="n">
-        <v>130.3439184977485</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I31" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J31" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="K31" t="n">
-        <v>55.98452989802861</v>
+        <v>55.9845298980286</v>
       </c>
       <c r="L31" t="n">
-        <v>352.6697335806355</v>
+        <v>363.6119281359395</v>
       </c>
       <c r="M31" t="n">
-        <v>685.1267398994522</v>
+        <v>685.1267398994518</v>
       </c>
       <c r="N31" t="n">
         <v>1016.019164229248</v>
       </c>
       <c r="O31" t="n">
-        <v>1315.151364501065</v>
+        <v>1315.151364501064</v>
       </c>
       <c r="P31" t="n">
         <v>1343.260631591178</v>
@@ -6645,28 +6645,28 @@
         <v>1343.260631591178</v>
       </c>
       <c r="R31" t="n">
-        <v>1343.260631591178</v>
+        <v>1340.186016364247</v>
       </c>
       <c r="S31" t="n">
-        <v>1157.606982560833</v>
+        <v>1154.532367333902</v>
       </c>
       <c r="T31" t="n">
-        <v>1157.606982560833</v>
+        <v>923.0211111985047</v>
       </c>
       <c r="U31" t="n">
-        <v>872.2219073435385</v>
+        <v>923.0211111985047</v>
       </c>
       <c r="V31" t="n">
-        <v>606.2425621643628</v>
+        <v>923.0211111985047</v>
       </c>
       <c r="W31" t="n">
-        <v>606.2425621643628</v>
+        <v>639.6907091296824</v>
       </c>
       <c r="X31" t="n">
-        <v>606.2425621643628</v>
+        <v>405.6103869126655</v>
       </c>
       <c r="Y31" t="n">
-        <v>383.1305009810061</v>
+        <v>182.4983257293088</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>418.1015470954195</v>
+        <v>334.4714104683136</v>
       </c>
       <c r="C32" t="n">
-        <v>418.1015470954195</v>
+        <v>334.4714104683136</v>
       </c>
       <c r="D32" t="n">
-        <v>418.1015470954195</v>
+        <v>334.4714104683136</v>
       </c>
       <c r="E32" t="n">
-        <v>418.1015470954195</v>
+        <v>334.4714104683136</v>
       </c>
       <c r="F32" t="n">
-        <v>78.89431689562707</v>
+        <v>334.4714104683136</v>
       </c>
       <c r="G32" t="n">
-        <v>78.89431689562707</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H32" t="n">
         <v>26.86521263182356</v>
@@ -6700,22 +6700,22 @@
         <v>26.86521263182356</v>
       </c>
       <c r="J32" t="n">
-        <v>92.99015204997841</v>
+        <v>92.99015204997838</v>
       </c>
       <c r="K32" t="n">
-        <v>225.0743319754416</v>
+        <v>225.0743319754415</v>
       </c>
       <c r="L32" t="n">
         <v>412.9225820627735</v>
       </c>
       <c r="M32" t="n">
-        <v>642.525089106458</v>
+        <v>642.5250891064582</v>
       </c>
       <c r="N32" t="n">
-        <v>878.8417802023815</v>
+        <v>878.8417802023818</v>
       </c>
       <c r="O32" t="n">
-        <v>1093.321010641007</v>
+        <v>1093.321010641008</v>
       </c>
       <c r="P32" t="n">
         <v>1253.948421109684</v>
@@ -6733,19 +6733,19 @@
         <v>1012.885870867898</v>
       </c>
       <c r="U32" t="n">
-        <v>757.3087772952119</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="V32" t="n">
-        <v>418.1015470954195</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="W32" t="n">
-        <v>418.1015470954195</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="X32" t="n">
-        <v>418.1015470954195</v>
+        <v>673.678640668106</v>
       </c>
       <c r="Y32" t="n">
-        <v>418.1015470954195</v>
+        <v>334.4714104683136</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>622.613807458019</v>
+        <v>370.1857550800896</v>
       </c>
       <c r="C33" t="n">
-        <v>622.613807458019</v>
+        <v>219.5315246401818</v>
       </c>
       <c r="D33" t="n">
-        <v>492.5248400794994</v>
+        <v>219.5315246401818</v>
       </c>
       <c r="E33" t="n">
-        <v>356.0783491903871</v>
+        <v>83.08503375106955</v>
       </c>
       <c r="F33" t="n">
-        <v>231.6465430735189</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="G33" t="n">
-        <v>112.7613944056222</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H33" t="n">
-        <v>35.80881007221426</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I33" t="n">
         <v>26.86521263182356</v>
       </c>
       <c r="J33" t="n">
-        <v>179.8517860488108</v>
+        <v>248.7521680057734</v>
       </c>
       <c r="K33" t="n">
-        <v>277.0594471343605</v>
+        <v>346.5625512559923</v>
       </c>
       <c r="L33" t="n">
-        <v>437.8767953852011</v>
+        <v>507.3798995068328</v>
       </c>
       <c r="M33" t="n">
-        <v>638.1250198416258</v>
+        <v>707.6281239632575</v>
       </c>
       <c r="N33" t="n">
-        <v>970.5820261604424</v>
+        <v>922.541942259091</v>
       </c>
       <c r="O33" t="n">
-        <v>1152.743316199522</v>
+        <v>1104.70323229817</v>
       </c>
       <c r="P33" t="n">
-        <v>1286.377318020765</v>
+        <v>1238.337234119414</v>
       </c>
       <c r="Q33" t="n">
-        <v>1343.260631591178</v>
+        <v>1295.220547689827</v>
       </c>
       <c r="R33" t="n">
         <v>1343.260631591178</v>
@@ -6812,19 +6812,19 @@
         <v>1343.260631591178</v>
       </c>
       <c r="U33" t="n">
-        <v>1133.274769142204</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="V33" t="n">
-        <v>910.734767513271</v>
+        <v>1120.720629962245</v>
       </c>
       <c r="W33" t="n">
-        <v>680.6175216465579</v>
+        <v>890.603384095532</v>
       </c>
       <c r="X33" t="n">
-        <v>680.6175216465579</v>
+        <v>701.2963064455437</v>
       </c>
       <c r="Y33" t="n">
-        <v>680.6175216465579</v>
+        <v>521.982089521051</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>912.8537840628646</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="C34" t="n">
-        <v>912.8537840628646</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="D34" t="n">
-        <v>757.2206709653794</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="E34" t="n">
-        <v>601.6618588245819</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="F34" t="n">
-        <v>444.3359240375548</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="G34" t="n">
-        <v>277.0666733850867</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H34" t="n">
-        <v>130.3439184977485</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I34" t="n">
         <v>26.86521263182356</v>
@@ -6870,7 +6870,7 @@
         <v>899.3903050058757</v>
       </c>
       <c r="N34" t="n">
-        <v>975.07156859398</v>
+        <v>964.9274474410846</v>
       </c>
       <c r="O34" t="n">
         <v>1022.402219330328</v>
@@ -6888,22 +6888,22 @@
         <v>1343.260631591178</v>
       </c>
       <c r="T34" t="n">
-        <v>1111.749375455781</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="U34" t="n">
-        <v>912.8537840628646</v>
+        <v>1057.875556373884</v>
       </c>
       <c r="V34" t="n">
-        <v>912.8537840628646</v>
+        <v>791.8962111947079</v>
       </c>
       <c r="W34" t="n">
-        <v>912.8537840628646</v>
+        <v>508.5658091258856</v>
       </c>
       <c r="X34" t="n">
-        <v>912.8537840628646</v>
+        <v>274.4854869088687</v>
       </c>
       <c r="Y34" t="n">
-        <v>912.8537840628646</v>
+        <v>212.0732313231248</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>758.9767073246787</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="C35" t="n">
-        <v>758.9767073246787</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="D35" t="n">
-        <v>758.9767073246787</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="E35" t="n">
-        <v>758.9767073246787</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="F35" t="n">
-        <v>419.7694771248863</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="G35" t="n">
-        <v>80.56224692509389</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H35" t="n">
-        <v>80.56224692509389</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I35" t="n">
         <v>26.86521263182356</v>
@@ -6940,10 +6940,10 @@
         <v>92.99015204997841</v>
       </c>
       <c r="K35" t="n">
-        <v>225.0743319754416</v>
+        <v>225.0743319754415</v>
       </c>
       <c r="L35" t="n">
-        <v>412.9225820627735</v>
+        <v>412.9225820627734</v>
       </c>
       <c r="M35" t="n">
         <v>642.525089106458</v>
@@ -6964,25 +6964,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S35" t="n">
-        <v>1226.775891332113</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T35" t="n">
-        <v>1012.885870867898</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="U35" t="n">
-        <v>758.9767073246787</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="V35" t="n">
-        <v>758.9767073246787</v>
+        <v>1004.053401391386</v>
       </c>
       <c r="W35" t="n">
-        <v>758.9767073246787</v>
+        <v>664.8461711915932</v>
       </c>
       <c r="X35" t="n">
-        <v>758.9767073246787</v>
+        <v>366.072442831616</v>
       </c>
       <c r="Y35" t="n">
-        <v>758.9767073246787</v>
+        <v>26.86521263182356</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>415.5722557460915</v>
+        <v>440.6080697737382</v>
       </c>
       <c r="C36" t="n">
-        <v>415.5722557460915</v>
+        <v>440.6080697737382</v>
       </c>
       <c r="D36" t="n">
-        <v>415.5722557460915</v>
+        <v>310.5191023952185</v>
       </c>
       <c r="E36" t="n">
-        <v>279.1257648569792</v>
+        <v>310.5191023952185</v>
       </c>
       <c r="F36" t="n">
-        <v>154.693958740111</v>
+        <v>186.0872962783503</v>
       </c>
       <c r="G36" t="n">
-        <v>35.80881007221426</v>
+        <v>67.20214761045362</v>
       </c>
       <c r="H36" t="n">
-        <v>35.80881007221426</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I36" t="n">
         <v>26.86521263182356</v>
@@ -7049,19 +7049,19 @@
         <v>1171.011561238155</v>
       </c>
       <c r="U36" t="n">
-        <v>986.7929137037543</v>
+        <v>961.0256987891805</v>
       </c>
       <c r="V36" t="n">
-        <v>986.7929137037543</v>
+        <v>961.0256987891805</v>
       </c>
       <c r="W36" t="n">
-        <v>756.6756678370411</v>
+        <v>961.0256987891805</v>
       </c>
       <c r="X36" t="n">
-        <v>567.3685901870529</v>
+        <v>771.7186211391922</v>
       </c>
       <c r="Y36" t="n">
-        <v>567.3685901870529</v>
+        <v>592.4044042146995</v>
       </c>
     </row>
     <row r="37">
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>651.1645193086533</v>
+        <v>105.2472448074094</v>
       </c>
       <c r="C37" t="n">
-        <v>651.1645193086533</v>
+        <v>105.2472448074094</v>
       </c>
       <c r="D37" t="n">
-        <v>651.1645193086533</v>
+        <v>105.2472448074094</v>
       </c>
       <c r="E37" t="n">
-        <v>601.6618588245819</v>
+        <v>105.2472448074094</v>
       </c>
       <c r="F37" t="n">
-        <v>444.3359240375548</v>
+        <v>105.2472448074094</v>
       </c>
       <c r="G37" t="n">
-        <v>277.0666733850867</v>
+        <v>105.2472448074094</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3439184977485</v>
+        <v>105.2472448074094</v>
       </c>
       <c r="I37" t="n">
         <v>26.86521263182356</v>
       </c>
       <c r="J37" t="n">
-        <v>65.33151044026181</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="K37" t="n">
-        <v>259.3059004491482</v>
+        <v>55.9845298980286</v>
       </c>
       <c r="L37" t="n">
-        <v>520.2262743275728</v>
+        <v>363.6119281359395</v>
       </c>
       <c r="M37" t="n">
-        <v>852.6832806463893</v>
+        <v>696.0689344547561</v>
       </c>
       <c r="N37" t="n">
-        <v>1183.575704976185</v>
+        <v>807.5150278470426</v>
       </c>
       <c r="O37" t="n">
-        <v>1230.906355712533</v>
+        <v>1106.647228118859</v>
       </c>
       <c r="P37" t="n">
-        <v>1259.015622802647</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="Q37" t="n">
         <v>1343.260631591178</v>
@@ -7122,25 +7122,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S37" t="n">
-        <v>1157.606982560832</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T37" t="n">
-        <v>1157.606982560832</v>
+        <v>1111.749375455781</v>
       </c>
       <c r="U37" t="n">
-        <v>1157.606982560832</v>
+        <v>1111.749375455781</v>
       </c>
       <c r="V37" t="n">
-        <v>1157.606982560832</v>
+        <v>845.7700302766053</v>
       </c>
       <c r="W37" t="n">
-        <v>874.27658049201</v>
+        <v>562.439628207783</v>
       </c>
       <c r="X37" t="n">
-        <v>874.27658049201</v>
+        <v>328.3593059907661</v>
       </c>
       <c r="Y37" t="n">
-        <v>651.1645193086533</v>
+        <v>105.2472448074094</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>873.7935175542765</v>
+        <v>758.976707324679</v>
       </c>
       <c r="C38" t="n">
-        <v>873.7935175542765</v>
+        <v>758.976707324679</v>
       </c>
       <c r="D38" t="n">
-        <v>873.7935175542765</v>
+        <v>758.976707324679</v>
       </c>
       <c r="E38" t="n">
-        <v>534.5862873544841</v>
+        <v>758.976707324679</v>
       </c>
       <c r="F38" t="n">
-        <v>534.5862873544841</v>
+        <v>419.7694771248864</v>
       </c>
       <c r="G38" t="n">
-        <v>328.4641116854395</v>
+        <v>80.5622469250939</v>
       </c>
       <c r="H38" t="n">
-        <v>26.86521263182356</v>
+        <v>80.5622469250939</v>
       </c>
       <c r="I38" t="n">
-        <v>26.86521263182356</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="J38" t="n">
         <v>92.99015204997841</v>
       </c>
       <c r="K38" t="n">
-        <v>225.0743319754415</v>
+        <v>225.0743319754413</v>
       </c>
       <c r="L38" t="n">
-        <v>412.9225820627734</v>
+        <v>412.9225820627732</v>
       </c>
       <c r="M38" t="n">
         <v>642.5250891064579</v>
@@ -7207,19 +7207,19 @@
         <v>1129.370611126963</v>
       </c>
       <c r="U38" t="n">
-        <v>873.7935175542765</v>
+        <v>873.7935175542769</v>
       </c>
       <c r="V38" t="n">
-        <v>873.7935175542765</v>
+        <v>758.976707324679</v>
       </c>
       <c r="W38" t="n">
-        <v>873.7935175542765</v>
+        <v>758.976707324679</v>
       </c>
       <c r="X38" t="n">
-        <v>873.7935175542765</v>
+        <v>758.976707324679</v>
       </c>
       <c r="Y38" t="n">
-        <v>873.7935175542765</v>
+        <v>758.976707324679</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>359.1494365222405</v>
+        <v>284.270574272288</v>
       </c>
       <c r="C39" t="n">
-        <v>359.1494365222405</v>
+        <v>151.2970187486918</v>
       </c>
       <c r="D39" t="n">
-        <v>359.1494365222405</v>
+        <v>151.2970187486918</v>
       </c>
       <c r="E39" t="n">
-        <v>222.7029456331282</v>
+        <v>151.2970187486918</v>
       </c>
       <c r="F39" t="n">
-        <v>222.7029456331282</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="G39" t="n">
-        <v>103.8177969652315</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="H39" t="n">
-        <v>26.86521263182356</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="I39" t="n">
-        <v>26.86521263182356</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="J39" t="n">
         <v>248.7521680057734</v>
@@ -7271,10 +7271,10 @@
         <v>1104.100510133501</v>
       </c>
       <c r="P39" t="n">
-        <v>1286.377318020765</v>
+        <v>1237.734511954745</v>
       </c>
       <c r="Q39" t="n">
-        <v>1343.260631591178</v>
+        <v>1295.220547689827</v>
       </c>
       <c r="R39" t="n">
         <v>1343.260631591178</v>
@@ -7286,19 +7286,19 @@
         <v>1057.899850441145</v>
       </c>
       <c r="U39" t="n">
-        <v>1057.899850441145</v>
+        <v>847.9139879921706</v>
       </c>
       <c r="V39" t="n">
-        <v>1057.899850441145</v>
+        <v>625.3739863632377</v>
       </c>
       <c r="W39" t="n">
-        <v>879.567065537683</v>
+        <v>625.3739863632377</v>
       </c>
       <c r="X39" t="n">
-        <v>690.2599878876946</v>
+        <v>436.0669087132493</v>
       </c>
       <c r="Y39" t="n">
-        <v>510.9457709632018</v>
+        <v>436.0669087132493</v>
       </c>
     </row>
     <row r="40">
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>428.9451548951458</v>
+        <v>760.2308392036098</v>
       </c>
       <c r="C40" t="n">
-        <v>428.9451548951458</v>
+        <v>590.025721269599</v>
       </c>
       <c r="D40" t="n">
-        <v>428.9451548951458</v>
+        <v>434.3926081721137</v>
       </c>
       <c r="E40" t="n">
-        <v>428.9451548951458</v>
+        <v>434.3926081721137</v>
       </c>
       <c r="F40" t="n">
-        <v>428.9451548951458</v>
+        <v>277.0666733850867</v>
       </c>
       <c r="G40" t="n">
-        <v>261.6759042426777</v>
+        <v>277.0666733850867</v>
       </c>
       <c r="H40" t="n">
-        <v>114.9531493553395</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="I40" t="n">
-        <v>26.86521263182356</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="J40" t="n">
-        <v>26.86521263182356</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="K40" t="n">
         <v>55.9845298980286</v>
       </c>
       <c r="L40" t="n">
-        <v>352.6697335806352</v>
+        <v>363.6119281359395</v>
       </c>
       <c r="M40" t="n">
-        <v>685.1267398994518</v>
+        <v>696.0689344547561</v>
       </c>
       <c r="N40" t="n">
         <v>1016.019164229248</v>
       </c>
       <c r="O40" t="n">
-        <v>1315.151364501064</v>
+        <v>1315.151364501065</v>
       </c>
       <c r="P40" t="n">
         <v>1343.260631591178</v>
@@ -7356,28 +7356,28 @@
         <v>1343.260631591178</v>
       </c>
       <c r="R40" t="n">
-        <v>1263.639977360438</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="S40" t="n">
-        <v>1263.639977360438</v>
+        <v>1157.606982560833</v>
       </c>
       <c r="T40" t="n">
-        <v>1263.639977360438</v>
+        <v>1026.210184382785</v>
       </c>
       <c r="U40" t="n">
-        <v>978.2549021431439</v>
+        <v>1026.210184382785</v>
       </c>
       <c r="V40" t="n">
-        <v>712.2755569639681</v>
+        <v>760.2308392036098</v>
       </c>
       <c r="W40" t="n">
-        <v>428.9451548951458</v>
+        <v>760.2308392036098</v>
       </c>
       <c r="X40" t="n">
-        <v>428.9451548951458</v>
+        <v>760.2308392036098</v>
       </c>
       <c r="Y40" t="n">
-        <v>428.9451548951458</v>
+        <v>760.2308392036098</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>209.1542007327362</v>
+        <v>418.1015470954195</v>
       </c>
       <c r="C41" t="n">
-        <v>209.1542007327362</v>
+        <v>418.1015470954195</v>
       </c>
       <c r="D41" t="n">
-        <v>26.86521263182357</v>
+        <v>418.1015470954195</v>
       </c>
       <c r="E41" t="n">
-        <v>26.86521263182357</v>
+        <v>418.1015470954195</v>
       </c>
       <c r="F41" t="n">
-        <v>26.86521263182357</v>
+        <v>418.1015470954195</v>
       </c>
       <c r="G41" t="n">
-        <v>26.86521263182357</v>
+        <v>78.89431689562707</v>
       </c>
       <c r="H41" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I41" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J41" t="n">
         <v>92.99015204997841</v>
       </c>
       <c r="K41" t="n">
-        <v>225.0743319754417</v>
+        <v>225.0743319754416</v>
       </c>
       <c r="L41" t="n">
-        <v>412.922582062774</v>
+        <v>412.9225820627735</v>
       </c>
       <c r="M41" t="n">
-        <v>642.5250891064586</v>
+        <v>642.525089106458</v>
       </c>
       <c r="N41" t="n">
-        <v>878.8417802023823</v>
+        <v>878.8417802023815</v>
       </c>
       <c r="O41" t="n">
-        <v>1093.321010641008</v>
+        <v>1093.321010641007</v>
       </c>
       <c r="P41" t="n">
-        <v>1253.948421109685</v>
+        <v>1253.948421109684</v>
       </c>
       <c r="Q41" t="n">
         <v>1343.260631591178</v>
@@ -7438,25 +7438,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S41" t="n">
-        <v>1226.775891332114</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="T41" t="n">
-        <v>1226.775891332114</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="U41" t="n">
-        <v>1226.775891332114</v>
+        <v>757.3087772952119</v>
       </c>
       <c r="V41" t="n">
-        <v>887.5686611323213</v>
+        <v>418.1015470954195</v>
       </c>
       <c r="W41" t="n">
-        <v>887.5686611323213</v>
+        <v>418.1015470954195</v>
       </c>
       <c r="X41" t="n">
-        <v>548.3614309325287</v>
+        <v>418.1015470954195</v>
       </c>
       <c r="Y41" t="n">
-        <v>209.1542007327362</v>
+        <v>418.1015470954195</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>486.1673165689068</v>
+        <v>222.7029456331282</v>
       </c>
       <c r="C42" t="n">
-        <v>486.1673165689068</v>
+        <v>222.7029456331282</v>
       </c>
       <c r="D42" t="n">
-        <v>356.0783491903871</v>
+        <v>222.7029456331282</v>
       </c>
       <c r="E42" t="n">
-        <v>356.0783491903871</v>
+        <v>222.7029456331282</v>
       </c>
       <c r="F42" t="n">
-        <v>231.6465430735189</v>
+        <v>222.7029456331282</v>
       </c>
       <c r="G42" t="n">
-        <v>112.7613944056222</v>
+        <v>103.8177969652315</v>
       </c>
       <c r="H42" t="n">
-        <v>35.80881007221428</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I42" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J42" t="n">
-        <v>248.7521680057734</v>
+        <v>54.01717302604602</v>
       </c>
       <c r="K42" t="n">
-        <v>345.9598290913232</v>
+        <v>151.2248341115958</v>
       </c>
       <c r="L42" t="n">
-        <v>506.7771773421638</v>
+        <v>312.0421823624364</v>
       </c>
       <c r="M42" t="n">
-        <v>707.0254017985885</v>
+        <v>512.2904068188611</v>
       </c>
       <c r="N42" t="n">
-        <v>921.939220094422</v>
+        <v>727.2042251146946</v>
       </c>
       <c r="O42" t="n">
-        <v>1104.703232298171</v>
+        <v>909.3655151537739</v>
       </c>
       <c r="P42" t="n">
-        <v>1238.337234119414</v>
+        <v>1042.999516975018</v>
       </c>
       <c r="Q42" t="n">
         <v>1295.220547689827</v>
@@ -7523,19 +7523,19 @@
         <v>1057.899850441145</v>
       </c>
       <c r="U42" t="n">
-        <v>1057.899850441145</v>
+        <v>847.9139879921704</v>
       </c>
       <c r="V42" t="n">
-        <v>1057.387974526569</v>
+        <v>625.3739863632375</v>
       </c>
       <c r="W42" t="n">
-        <v>827.2707286598563</v>
+        <v>395.2567404965243</v>
       </c>
       <c r="X42" t="n">
-        <v>637.963651009868</v>
+        <v>222.7029456331282</v>
       </c>
       <c r="Y42" t="n">
-        <v>637.963651009868</v>
+        <v>222.7029456331282</v>
       </c>
     </row>
     <row r="43">
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>308.9535759526478</v>
+        <v>891.6276373816567</v>
       </c>
       <c r="C43" t="n">
-        <v>308.9535759526478</v>
+        <v>891.6276373816567</v>
       </c>
       <c r="D43" t="n">
-        <v>153.3204628551626</v>
+        <v>757.2206709653794</v>
       </c>
       <c r="E43" t="n">
-        <v>153.3204628551626</v>
+        <v>601.6618588245819</v>
       </c>
       <c r="F43" t="n">
-        <v>153.3204628551626</v>
+        <v>444.3359240375548</v>
       </c>
       <c r="G43" t="n">
-        <v>153.3204628551626</v>
+        <v>277.0666733850867</v>
       </c>
       <c r="H43" t="n">
-        <v>26.86521263182357</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="I43" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J43" t="n">
-        <v>65.33151044026182</v>
+        <v>65.33151044026181</v>
       </c>
       <c r="K43" t="n">
         <v>259.3059004491482</v>
       </c>
       <c r="L43" t="n">
-        <v>538.9800980370341</v>
+        <v>566.9332986870591</v>
       </c>
       <c r="M43" t="n">
-        <v>600.8817311109209</v>
+        <v>628.8349317609459</v>
       </c>
       <c r="N43" t="n">
-        <v>931.7741554407166</v>
+        <v>723.2700190585113</v>
       </c>
       <c r="O43" t="n">
-        <v>1230.906355712533</v>
+        <v>1022.402219330328</v>
       </c>
       <c r="P43" t="n">
         <v>1259.015622802647</v>
@@ -7596,25 +7596,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S43" t="n">
-        <v>1343.260631591178</v>
+        <v>1157.606982560832</v>
       </c>
       <c r="T43" t="n">
-        <v>1111.749375455782</v>
+        <v>1157.606982560832</v>
       </c>
       <c r="U43" t="n">
-        <v>826.3643002384872</v>
+        <v>1157.606982560832</v>
       </c>
       <c r="V43" t="n">
-        <v>826.3643002384872</v>
+        <v>891.6276373816567</v>
       </c>
       <c r="W43" t="n">
-        <v>543.0338981696648</v>
+        <v>891.6276373816567</v>
       </c>
       <c r="X43" t="n">
-        <v>308.9535759526478</v>
+        <v>891.6276373816567</v>
       </c>
       <c r="Y43" t="n">
-        <v>308.9535759526478</v>
+        <v>891.6276373816567</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>1004.053401391386</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1004.053401391386</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1004.053401391386</v>
+      </c>
+      <c r="E44" t="n">
         <v>705.2796730314085</v>
       </c>
-      <c r="C44" t="n">
-        <v>705.2796730314085</v>
-      </c>
-      <c r="D44" t="n">
-        <v>705.2796730314085</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>366.072442831616</v>
-      </c>
-      <c r="F44" t="n">
-        <v>26.86521263182356</v>
       </c>
       <c r="G44" t="n">
         <v>26.86521263182356</v>
@@ -7648,22 +7648,22 @@
         <v>26.86521263182356</v>
       </c>
       <c r="J44" t="n">
-        <v>92.99015204997841</v>
+        <v>92.99015204997838</v>
       </c>
       <c r="K44" t="n">
-        <v>225.0743319754416</v>
+        <v>225.0743319754415</v>
       </c>
       <c r="L44" t="n">
         <v>412.9225820627735</v>
       </c>
       <c r="M44" t="n">
-        <v>642.525089106458</v>
+        <v>642.5250891064582</v>
       </c>
       <c r="N44" t="n">
-        <v>878.8417802023815</v>
+        <v>878.8417802023818</v>
       </c>
       <c r="O44" t="n">
-        <v>1093.321010641007</v>
+        <v>1093.321010641008</v>
       </c>
       <c r="P44" t="n">
         <v>1253.948421109684</v>
@@ -7684,16 +7684,16 @@
         <v>1343.260631591178</v>
       </c>
       <c r="V44" t="n">
-        <v>1044.486903231201</v>
+        <v>1004.053401391386</v>
       </c>
       <c r="W44" t="n">
-        <v>705.2796730314085</v>
+        <v>1004.053401391386</v>
       </c>
       <c r="X44" t="n">
-        <v>705.2796730314085</v>
+        <v>1004.053401391386</v>
       </c>
       <c r="Y44" t="n">
-        <v>705.2796730314085</v>
+        <v>1004.053401391386</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>399.8621157346423</v>
+        <v>420.4766863559992</v>
       </c>
       <c r="C45" t="n">
-        <v>249.2078852947345</v>
+        <v>269.8224559160914</v>
       </c>
       <c r="D45" t="n">
-        <v>249.2078852947345</v>
+        <v>139.7334885375717</v>
       </c>
       <c r="E45" t="n">
-        <v>112.7613944056222</v>
+        <v>103.8177969652315</v>
       </c>
       <c r="F45" t="n">
-        <v>112.7613944056222</v>
+        <v>103.8177969652315</v>
       </c>
       <c r="G45" t="n">
-        <v>112.7613944056222</v>
+        <v>103.8177969652315</v>
       </c>
       <c r="H45" t="n">
-        <v>35.80881007221426</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I45" t="n">
         <v>26.86521263182356</v>
       </c>
       <c r="J45" t="n">
-        <v>54.01717302604602</v>
+        <v>248.7521680057734</v>
       </c>
       <c r="K45" t="n">
-        <v>151.2248341115958</v>
+        <v>394.6026351573436</v>
       </c>
       <c r="L45" t="n">
-        <v>357.0841832270954</v>
+        <v>555.4199834081842</v>
       </c>
       <c r="M45" t="n">
-        <v>557.33240768352</v>
+        <v>755.6682078646089</v>
       </c>
       <c r="N45" t="n">
-        <v>772.2462259793535</v>
+        <v>970.5820261604424</v>
       </c>
       <c r="O45" t="n">
-        <v>1104.70323229817</v>
+        <v>1152.743316199522</v>
       </c>
       <c r="P45" t="n">
-        <v>1238.337234119414</v>
+        <v>1286.377318020765</v>
       </c>
       <c r="Q45" t="n">
-        <v>1295.220547689827</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="R45" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="S45" t="n">
-        <v>1230.148920794168</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T45" t="n">
-        <v>1221.140657804769</v>
+        <v>1171.011561238155</v>
       </c>
       <c r="U45" t="n">
-        <v>1221.140657804769</v>
+        <v>1171.011561238155</v>
       </c>
       <c r="V45" t="n">
-        <v>998.6006561758365</v>
+        <v>1171.011561238155</v>
       </c>
       <c r="W45" t="n">
-        <v>768.4834103091234</v>
+        <v>940.8943153714415</v>
       </c>
       <c r="X45" t="n">
-        <v>579.1763326591351</v>
+        <v>751.5872377214532</v>
       </c>
       <c r="Y45" t="n">
-        <v>399.8621157346423</v>
+        <v>572.2730207969605</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>610.572217034729</v>
+        <v>507.093511168804</v>
       </c>
       <c r="C46" t="n">
-        <v>610.572217034729</v>
+        <v>507.093511168804</v>
       </c>
       <c r="D46" t="n">
-        <v>454.9391039372437</v>
+        <v>351.4603980713188</v>
       </c>
       <c r="E46" t="n">
-        <v>454.9391039372437</v>
+        <v>351.4603980713188</v>
       </c>
       <c r="F46" t="n">
-        <v>297.6131691502166</v>
+        <v>194.1344632842917</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3439184977485</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3439184977485</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I46" t="n">
         <v>26.86521263182356</v>
@@ -7818,40 +7818,40 @@
         <v>899.3903050058757</v>
       </c>
       <c r="N46" t="n">
-        <v>1230.282729335671</v>
+        <v>964.9274474410846</v>
       </c>
       <c r="O46" t="n">
-        <v>1277.613380072019</v>
+        <v>1022.402219330328</v>
       </c>
       <c r="P46" t="n">
-        <v>1305.722647162133</v>
+        <v>1259.015622802647</v>
       </c>
       <c r="Q46" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="R46" t="n">
-        <v>1343.260631591178</v>
+        <v>1263.639977360438</v>
       </c>
       <c r="S46" t="n">
-        <v>1343.260631591178</v>
+        <v>1263.639977360438</v>
       </c>
       <c r="T46" t="n">
-        <v>1111.749375455781</v>
+        <v>1032.128721225041</v>
       </c>
       <c r="U46" t="n">
-        <v>844.6525392517459</v>
+        <v>1032.128721225041</v>
       </c>
       <c r="V46" t="n">
-        <v>844.6525392517459</v>
+        <v>926.3818520771223</v>
       </c>
       <c r="W46" t="n">
-        <v>844.6525392517459</v>
+        <v>926.3818520771223</v>
       </c>
       <c r="X46" t="n">
-        <v>610.572217034729</v>
+        <v>692.3015298601053</v>
       </c>
       <c r="Y46" t="n">
-        <v>610.572217034729</v>
+        <v>692.3015298601053</v>
       </c>
     </row>
   </sheetData>
@@ -8768,13 +8768,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>237.625601245724</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>8.210561426748484</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>49.1341475414351</v>
       </c>
       <c r="R12" t="n">
         <v>22.48846763156808</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.4725364634484</v>
+        <v>13.61769019229865</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>247.2877271215132</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>273.2882558029593</v>
+        <v>219.9898611915821</v>
       </c>
       <c r="N13" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P13" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.83904659602835</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6088102673422213</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>49.13414754143464</v>
       </c>
       <c r="R15" t="n">
-        <v>71.01380490566048</v>
+        <v>22.48846763156808</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>253.4605344048249</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>273.2882558029593</v>
       </c>
       <c r="N16" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O16" t="n">
-        <v>15.49920454872546</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P16" t="n">
-        <v>210.6102387699041</v>
+        <v>118.4569978873766</v>
       </c>
       <c r="Q16" t="n">
         <v>101.9350150692923</v>
@@ -9245,16 +9245,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>197.3108253983802</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>133.5442241034261</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>63.76660129495409</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>52.4725364634484</v>
+        <v>13.61769019229865</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>242.4078126317903</v>
       </c>
       <c r="M19" t="n">
         <v>273.2882558029593</v>
       </c>
       <c r="N19" t="n">
-        <v>175.882397394833</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O19" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P19" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>101.9350150692923</v>
+        <v>16.83904659602835</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>49.13414754143449</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>197.3108253983801</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>71.01380490566048</v>
+        <v>22.48846763156808</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L22" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>273.2882558029593</v>
       </c>
       <c r="N22" t="n">
-        <v>195.7101187929675</v>
+        <v>51.60779473551794</v>
       </c>
       <c r="O22" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P22" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>101.9350150692923</v>
+        <v>16.83904659602835</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>237.625601245724</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>245.8361626724724</v>
+        <v>8.21056142674847</v>
       </c>
       <c r="R24" t="n">
         <v>22.48846763156808</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>52.4725364634484</v>
+        <v>13.61769019229865</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>253.4605344048249</v>
+        <v>242.4078126317903</v>
       </c>
       <c r="M25" t="n">
         <v>273.2882558029593</v>
@@ -9810,10 +9810,10 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P25" t="n">
-        <v>204.4374314865925</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>16.83904659602835</v>
@@ -9953,13 +9953,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>72.46277068461831</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>173.3733919878546</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>245.8361626724724</v>
       </c>
       <c r="R27" t="n">
         <v>22.48846763156808</v>
@@ -10038,22 +10038,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>253.4605344048249</v>
+        <v>242.4078126317903</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>273.2882558029593</v>
       </c>
       <c r="N28" t="n">
-        <v>234.5649650641176</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O28" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P28" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>101.9350150692923</v>
+        <v>16.83904659602835</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>49.13414754143514</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>245.8361626724724</v>
       </c>
       <c r="R30" t="n">
         <v>22.48846763156808</v>
@@ -10275,10 +10275,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>242.4078126317906</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M31" t="n">
-        <v>273.2882558029594</v>
+        <v>262.2355340299247</v>
       </c>
       <c r="N31" t="n">
         <v>268.0356382773604</v>
@@ -10427,10 +10427,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>127.1056697199644</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.6088102673424913</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>118.7304929525081</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>22.48846763156808</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10518,10 +10518,10 @@
         <v>273.2882558029593</v>
       </c>
       <c r="N34" t="n">
-        <v>10.24658702312666</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>10.24658702312672</v>
       </c>
       <c r="P34" t="n">
         <v>210.6102387699041</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>52.4725364634484</v>
+        <v>13.61769019229865</v>
       </c>
       <c r="K37" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>206.2817219204953</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M37" t="n">
         <v>273.2882558029593</v>
       </c>
       <c r="N37" t="n">
-        <v>268.0356382773604</v>
+        <v>46.37267773442173</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q37" t="n">
-        <v>101.9350150692923</v>
+        <v>16.83904659602835</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>49.13414754143457</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>0.6088102673425411</v>
       </c>
       <c r="R39" t="n">
-        <v>22.48846763156808</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,13 +10986,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>242.4078126317903</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M40" t="n">
-        <v>273.2882558029593</v>
+        <v>273.2882558029594</v>
       </c>
       <c r="N40" t="n">
-        <v>268.0356382773604</v>
+        <v>256.9829165043259</v>
       </c>
       <c r="O40" t="n">
         <v>254.3449995307766</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11153,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0.6088102673428182</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>197.3108253983801</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11223,19 +11223,19 @@
         <v>166.520275497658</v>
       </c>
       <c r="L43" t="n">
-        <v>225.2249781926783</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>268.0356382773604</v>
+        <v>29.18984329530952</v>
       </c>
       <c r="O43" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q43" t="n">
         <v>101.9350150692923</v>
@@ -11375,13 +11375,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>49.1341475414347</v>
       </c>
       <c r="L45" t="n">
-        <v>45.49697057036261</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>151.8138548280175</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>71.01380490566048</v>
+        <v>22.48846763156808</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11466,16 +11466,16 @@
         <v>273.2882558029593</v>
       </c>
       <c r="N46" t="n">
-        <v>268.0356382773604</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>10.24658702312672</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.75620258496278</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>8.417632379864196</v>
+        <v>8.417632379864187</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.7038071779056</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>53.42858858430418</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>62.74253173682627</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>76.91033618752738</v>
       </c>
       <c r="G11" t="n">
         <v>406.8576325470299</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>115.319892856474</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.0213226369596</v>
@@ -23323,10 +23323,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>49.74292111847922</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>56.71064409081038</v>
+        <v>87.99566613047961</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>114.6451992412302</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>111.9805936890401</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>207.8860038244843</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>227.816073408046</v>
+        <v>161.8494311530196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23424,16 +23424,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>137.8891368101491</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>165.5965581459434</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>178.1509394739153</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60.67464035648845</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>115.319892856474</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.0213226369596</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>2.870583305722334</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>71.50305360501801</v>
+        <v>31.4738867836009</v>
       </c>
       <c r="X14" t="n">
-        <v>49.74292111847927</v>
+        <v>49.74292111847922</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>341.0169887674394</v>
       </c>
     </row>
     <row r="15">
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>135.0820259802211</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>57.66412820464149</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,22 +23627,22 @@
         <v>111.9805936890401</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>170.5265796494932</v>
       </c>
       <c r="U15" t="n">
-        <v>207.8860038244843</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.281876722136218</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -23658,19 +23658,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H16" t="n">
-        <v>145.2555273384648</v>
+        <v>143.2998109767784</v>
       </c>
       <c r="I16" t="n">
         <v>102.4439188072657</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>78.82444768843243</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>107.2100190298511</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>76.91033618752749</v>
       </c>
       <c r="G17" t="n">
-        <v>406.8576325470299</v>
+        <v>71.04247464923543</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>298.5829100630798</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>53.16006395033763</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>115.319892856474</v>
       </c>
       <c r="T17" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.0213226369596</v>
+        <v>168.986451820155</v>
       </c>
       <c r="V17" t="n">
-        <v>2.870583305722278</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>202.750762577115</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>49.74292111847922</v>
@@ -23813,25 +23813,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>97.48322794243626</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>76.18305849007386</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23870,13 +23870,13 @@
         <v>207.8860038244843</v>
       </c>
       <c r="V18" t="n">
-        <v>5.200271222108881</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
@@ -23904,7 +23904,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5965581459434</v>
+        <v>144.9018585814808</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>78.82444768843243</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>183.7971125400421</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01199919065214772</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>60.67464035648845</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>45.77155959770442</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -23983,13 +23983,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>71.04247464923543</v>
+        <v>71.04247464923549</v>
       </c>
       <c r="H20" t="n">
-        <v>298.5829100630798</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>53.16006395033763</v>
+        <v>47.21283815529249</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>115.319892856474</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>253.0213226369596</v>
       </c>
       <c r="V20" t="n">
-        <v>42.89975012713938</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>31.4738867836009</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>128.7880777047345</v>
+        <v>45.67524724673841</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>76.18305849007386</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>111.9805936890401</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,16 +24107,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>121.4338331187955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -24135,7 +24135,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
@@ -24180,7 +24180,7 @@
         <v>183.7971125400421</v>
       </c>
       <c r="T22" t="n">
-        <v>229.1961435740429</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>194.6590097967689</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>75.63741242371057</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60.6746403564884</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24217,7 +24217,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>232.2593958654186</v>
+        <v>76.91033618752749</v>
       </c>
       <c r="G23" t="n">
         <v>406.8576325470299</v>
@@ -24259,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>253.0213226369596</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>34.15560534539173</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>49.74292111847922</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>56.71064409081038</v>
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>104.3601430146857</v>
       </c>
       <c r="C24" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>35.56520029134548</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24338,7 +24338,7 @@
         <v>111.9805936890401</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>170.5265796494932</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24347,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>187.4140068734885</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>10.78393324409984</v>
+        <v>47.2379464369869</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I25" t="n">
-        <v>102.4439188072657</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>78.82444768843243</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24448,22 +24448,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>45.77155959770442</v>
       </c>
       <c r="E26" t="n">
-        <v>118.6995146738664</v>
+        <v>62.74253173682638</v>
       </c>
       <c r="F26" t="n">
-        <v>76.91033618752738</v>
+        <v>406.7782682902767</v>
       </c>
       <c r="G26" t="n">
-        <v>71.04247464923532</v>
+        <v>406.8576325470299</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>53.16006395033763</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>115.319892856474</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.0213226369596</v>
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>120.3959523067224</v>
       </c>
       <c r="F27" t="n">
-        <v>65.4046326103374</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>76.18305849007386</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>111.9805936890401</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>170.5265796494932</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>75.48854442760988</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5965581459434</v>
+        <v>134.8824390862379</v>
       </c>
       <c r="H28" t="n">
         <v>145.2555273384648</v>
       </c>
       <c r="I28" t="n">
-        <v>102.4439188072657</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>78.82444768843243</v>
       </c>
       <c r="S28" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>229.1961435740429</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>60.67464035648828</v>
+        <v>60.6746403564884</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>53.42858858430418</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>201.1206192755956</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>76.91033618752738</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>406.8576325470299</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.0213226369596</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -24748,7 +24748,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>341.0169887674393</v>
+        <v>56.71064409081038</v>
       </c>
     </row>
     <row r="30">
@@ -24767,19 +24767,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>80.59277477060127</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>117.6962971812177</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>76.18305849007386</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,22 +24809,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>111.9805936890401</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>38.52524645019429</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>72.24757411563519</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
@@ -24858,7 +24858,7 @@
         <v>145.2555273384648</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>102.4439188072657</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>78.82444768843243</v>
+        <v>75.78057861377098</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>229.1961435740429</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>76.91033618752749</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>406.8576325470299</v>
+        <v>102.3274966889048</v>
       </c>
       <c r="H32" t="n">
-        <v>247.0740968419143</v>
+        <v>298.5829100630798</v>
       </c>
       <c r="I32" t="n">
         <v>53.16006395033763</v>
@@ -24973,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.0213226369596</v>
       </c>
       <c r="V32" t="n">
-        <v>2.870583305722278</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>49.74292111847922</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>56.71064409081038</v>
       </c>
     </row>
     <row r="33">
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>92.85469404989823</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>67.52986514764601</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>117.6962971812177</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>76.18305849007386</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>170.5265796494932</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>207.8860038244843</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,10 +25061,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>102.4439188072657</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>183.7971125400421</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>229.1961435740429</v>
       </c>
       <c r="U34" t="n">
-        <v>85.62458898613411</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>159.0928075416367</v>
       </c>
     </row>
     <row r="35">
@@ -25165,16 +25165,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>76.91033618752749</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>71.04247464923543</v>
+        <v>406.8576325470299</v>
       </c>
       <c r="H35" t="n">
         <v>298.5829100630798</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>53.16006395033763</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>115.319892856474</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U35" t="n">
-        <v>1.651250729172091</v>
+        <v>253.0213226369596</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>2.870583305722278</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>31.4738867836009</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>89.77208793989638</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>56.71064409081038</v>
       </c>
     </row>
     <row r="36">
@@ -25238,10 +25238,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>76.18305849007386</v>
+        <v>36.2494928612301</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25289,19 +25289,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>25.50954276542797</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25320,19 +25320,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>104.9955901401588</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>24.84570695343568</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>78.82444768843243</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T37" t="n">
-        <v>229.1961435740429</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>282.5312244651214</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>62.74253173682638</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>76.91033618752743</v>
       </c>
       <c r="G38" t="n">
-        <v>202.7966786346759</v>
+        <v>71.04247464923537</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>298.5829100630798</v>
       </c>
       <c r="I38" t="n">
-        <v>53.16006395033763</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>225.0170990762148</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -25472,22 +25472,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>17.50386816714843</v>
       </c>
       <c r="D39" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>117.6962971812177</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>76.18305849007386</v>
       </c>
       <c r="I39" t="n">
         <v>8.854161465986799</v>
@@ -25526,19 +25526,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>207.8860038244843</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>51.26661635361913</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="40">
@@ -25551,25 +25551,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>15.23686145098489</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>78.82444768843243</v>
       </c>
       <c r="S40" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>229.1961435740429</v>
+        <v>99.11331337777614</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25633,7 +25633,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>201.1206192755955</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -25642,10 +25642,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>406.8576325470299</v>
+        <v>71.04247464923543</v>
       </c>
       <c r="H41" t="n">
-        <v>298.5829100630798</v>
+        <v>247.0740968419143</v>
       </c>
       <c r="I41" t="n">
         <v>53.16006395033763</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.0213226369596</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>2.870583305722164</v>
+        <v>2.870583305722278</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>49.7429211184791</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>56.71064409081026</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25763,16 +25763,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>207.8860038244843</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>219.8078444572139</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>16.5857499587263</v>
       </c>
       <c r="Y42" t="n">
         <v>177.5210747552478</v>
@@ -25791,22 +25791,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>21.01388521439597</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5965581459434</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>20.06482961735917</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>102.4439188072657</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>78.82444768843243</v>
       </c>
       <c r="S43" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.1961435740429</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25873,13 +25873,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>62.74253173682638</v>
+        <v>102.7716985582436</v>
       </c>
       <c r="F44" t="n">
         <v>76.91033618752749</v>
       </c>
       <c r="G44" t="n">
-        <v>406.8576325470299</v>
+        <v>71.04247464923543</v>
       </c>
       <c r="H44" t="n">
         <v>298.5829100630798</v>
@@ -25924,10 +25924,10 @@
         <v>253.0213226369596</v>
       </c>
       <c r="V44" t="n">
-        <v>42.89975012713938</v>
+        <v>2.870583305722278</v>
       </c>
       <c r="W44" t="n">
-        <v>31.4738867836009</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -25943,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>99.52549132360436</v>
       </c>
       <c r="F45" t="n">
         <v>123.1874880556995</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,16 +25994,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>111.9805936890401</v>
       </c>
       <c r="T45" t="n">
-        <v>161.6083992899888</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>207.8860038244843</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
@@ -26043,7 +26043,7 @@
         <v>145.2555273384648</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>102.4439188072657</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>78.82444768843243</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>183.7971125400421</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>18.10535662312657</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>158.6301512709442</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>376225.3287151807</v>
+        <v>376225.3287151806</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>376225.3287151807</v>
+        <v>376225.3287151805</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>376225.3287151806</v>
+        <v>376225.3287151807</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>376225.3287151807</v>
+        <v>376225.3287151806</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>557687.5860756227</v>
+      </c>
+      <c r="C2" t="n">
         <v>557687.5860756228</v>
-      </c>
-      <c r="C2" t="n">
-        <v>557687.5860756227</v>
       </c>
       <c r="D2" t="n">
         <v>557725.4326177686</v>
       </c>
       <c r="E2" t="n">
-        <v>282447.6709147301</v>
+        <v>282447.6709147303</v>
       </c>
       <c r="F2" t="n">
         <v>282447.6709147301</v>
@@ -26331,31 +26331,31 @@
         <v>282447.6709147301</v>
       </c>
       <c r="H2" t="n">
+        <v>282447.67091473</v>
+      </c>
+      <c r="I2" t="n">
         <v>282447.6709147302</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>282447.67091473</v>
+      </c>
+      <c r="K2" t="n">
         <v>282447.6709147301</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>282447.6709147301</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>282447.6709147302</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>282447.6709147302</v>
-      </c>
-      <c r="M2" t="n">
-        <v>282447.67091473</v>
-      </c>
-      <c r="N2" t="n">
-        <v>282447.6709147301</v>
       </c>
       <c r="O2" t="n">
         <v>282447.6709147302</v>
       </c>
       <c r="P2" t="n">
-        <v>282447.6709147301</v>
+        <v>282447.6709147302</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>130694.7925215629</v>
       </c>
       <c r="E3" t="n">
-        <v>412027.5189573163</v>
+        <v>412027.5189573164</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>83686.48060876197</v>
+        <v>83686.48060876199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>407601.0986972392</v>
+        <v>407601.0986972393</v>
       </c>
       <c r="C4" t="n">
         <v>407601.0986972392</v>
@@ -26426,7 +26426,7 @@
         <v>356144.3947307461</v>
       </c>
       <c r="E4" t="n">
-        <v>21179.1388970503</v>
+        <v>21179.13889705031</v>
       </c>
       <c r="F4" t="n">
         <v>21179.13889705029</v>
@@ -26435,28 +26435,28 @@
         <v>21179.1388970503</v>
       </c>
       <c r="H4" t="n">
+        <v>21179.13889705029</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21179.13889705029</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21179.13889705029</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21179.13889705029</v>
+      </c>
+      <c r="L4" t="n">
         <v>21179.1388970503</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>21179.1388970503</v>
       </c>
-      <c r="J4" t="n">
-        <v>21179.13889705031</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21179.13889705031</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
+        <v>21179.1388970503</v>
+      </c>
+      <c r="O4" t="n">
         <v>21179.13889705029</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21179.13889705029</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21179.13889705029</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21179.13889705031</v>
       </c>
       <c r="P4" t="n">
         <v>21179.1388970503</v>
@@ -26478,7 +26478,7 @@
         <v>36954.43314024534</v>
       </c>
       <c r="E5" t="n">
-        <v>32203.88383393312</v>
+        <v>32203.88383393313</v>
       </c>
       <c r="F5" t="n">
         <v>32203.88383393312</v>
@@ -26493,10 +26493,10 @@
         <v>32203.88383393312</v>
       </c>
       <c r="J5" t="n">
-        <v>32203.88383393313</v>
+        <v>32203.88383393312</v>
       </c>
       <c r="K5" t="n">
-        <v>32203.88383393313</v>
+        <v>32203.88383393312</v>
       </c>
       <c r="L5" t="n">
         <v>32203.88383393312</v>
@@ -26508,7 +26508,7 @@
         <v>32203.88383393312</v>
       </c>
       <c r="O5" t="n">
-        <v>32203.88383393313</v>
+        <v>32203.88383393312</v>
       </c>
       <c r="P5" t="n">
         <v>32203.88383393312</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116458.8873783836</v>
+        <v>116454.557810597</v>
       </c>
       <c r="C6" t="n">
-        <v>116458.8873783835</v>
+        <v>116454.5578105972</v>
       </c>
       <c r="D6" t="n">
-        <v>33931.81222521432</v>
+        <v>33927.60474304773</v>
       </c>
       <c r="E6" t="n">
-        <v>-182962.8707735697</v>
+        <v>-183855.0710354232</v>
       </c>
       <c r="F6" t="n">
-        <v>229064.6481837466</v>
+        <v>228172.4479218929</v>
       </c>
       <c r="G6" t="n">
-        <v>229064.6481837466</v>
+        <v>228172.4479218929</v>
       </c>
       <c r="H6" t="n">
-        <v>229064.6481837468</v>
+        <v>228172.4479218928</v>
       </c>
       <c r="I6" t="n">
-        <v>229064.6481837466</v>
+        <v>228172.447921893</v>
       </c>
       <c r="J6" t="n">
-        <v>229064.6481837466</v>
+        <v>228172.4479218928</v>
       </c>
       <c r="K6" t="n">
-        <v>229064.6481837467</v>
+        <v>228172.4479218929</v>
       </c>
       <c r="L6" t="n">
-        <v>229064.6481837468</v>
+        <v>228172.4479218929</v>
       </c>
       <c r="M6" t="n">
-        <v>145378.1675749846</v>
+        <v>144485.967313131</v>
       </c>
       <c r="N6" t="n">
-        <v>229064.6481837467</v>
+        <v>228172.447921893</v>
       </c>
       <c r="O6" t="n">
-        <v>229064.6481837467</v>
+        <v>228172.447921893</v>
       </c>
       <c r="P6" t="n">
-        <v>229064.6481837466</v>
+        <v>228172.447921893</v>
       </c>
     </row>
   </sheetData>
@@ -26798,25 +26798,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>335.8151578977946</v>
+      </c>
+      <c r="F4" t="n">
         <v>335.8151578977945</v>
-      </c>
-      <c r="F4" t="n">
-        <v>335.8151578977944</v>
       </c>
       <c r="G4" t="n">
         <v>335.8151578977945</v>
       </c>
       <c r="H4" t="n">
-        <v>335.8151578977945</v>
+        <v>335.8151578977944</v>
       </c>
       <c r="I4" t="n">
         <v>335.8151578977945</v>
       </c>
       <c r="J4" t="n">
-        <v>335.8151578977946</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="K4" t="n">
-        <v>335.8151578977946</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="L4" t="n">
         <v>335.8151578977945</v>
@@ -26825,10 +26825,10 @@
         <v>335.8151578977945</v>
       </c>
       <c r="N4" t="n">
+        <v>335.8151578977946</v>
+      </c>
+      <c r="O4" t="n">
         <v>335.8151578977945</v>
-      </c>
-      <c r="O4" t="n">
-        <v>335.8151578977946</v>
       </c>
       <c r="P4" t="n">
         <v>335.8151578977945</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>335.8151578977944</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>335.8151578977944</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>335.8151578977944</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34389,7 +34389,7 @@
         <v>312.5513568052449</v>
       </c>
       <c r="Q44" t="n">
-        <v>234.7130524401032</v>
+        <v>234.7130524401029</v>
       </c>
       <c r="R44" t="n">
         <v>136.5308310387946</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>27.42622262042673</v>
+        <v>224.1282377514645</v>
       </c>
       <c r="K12" t="n">
-        <v>335.8151578977945</v>
+        <v>98.18955665207049</v>
       </c>
       <c r="L12" t="n">
-        <v>170.6523273366885</v>
+        <v>162.44176590994</v>
       </c>
       <c r="M12" t="n">
         <v>202.2709337943684</v>
@@ -35509,7 +35509,7 @@
         <v>134.9838402234784</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.45789249536649</v>
+        <v>106.5920400368016</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>38.85484627114975</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>29.41345178404549</v>
       </c>
       <c r="L13" t="n">
-        <v>304.5619384115478</v>
+        <v>57.2742112900346</v>
       </c>
       <c r="M13" t="n">
-        <v>335.8151578977945</v>
+        <v>282.5167632864173</v>
       </c>
       <c r="N13" t="n">
         <v>334.2347720502987</v>
       </c>
       <c r="O13" t="n">
-        <v>47.80873811752325</v>
+        <v>302.1537376482999</v>
       </c>
       <c r="P13" t="n">
         <v>239.0034378508269</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>85.09596847326392</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35734,7 +35734,7 @@
         <v>162.44176590994</v>
       </c>
       <c r="M15" t="n">
-        <v>202.8797440617106</v>
+        <v>202.2709337943684</v>
       </c>
       <c r="N15" t="n">
         <v>217.0846649452864</v>
@@ -35746,10 +35746,10 @@
         <v>134.9838402234784</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.45789249536649</v>
+        <v>106.5920400368011</v>
       </c>
       <c r="R15" t="n">
-        <v>48.52533727409239</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>38.85484627114975</v>
       </c>
       <c r="K16" t="n">
-        <v>195.9337272817035</v>
+        <v>29.41345178404549</v>
       </c>
       <c r="L16" t="n">
-        <v>310.7347456948595</v>
+        <v>57.2742112900346</v>
       </c>
       <c r="M16" t="n">
-        <v>62.52690209483517</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="N16" t="n">
         <v>334.2347720502987</v>
       </c>
       <c r="O16" t="n">
-        <v>63.30794266624871</v>
+        <v>302.1537376482999</v>
       </c>
       <c r="P16" t="n">
-        <v>239.0034378508269</v>
+        <v>146.8501969682995</v>
       </c>
       <c r="Q16" t="n">
         <v>85.09596847326392</v>
@@ -35965,16 +35965,16 @@
         <v>27.42622262042673</v>
       </c>
       <c r="K18" t="n">
-        <v>98.18955665207049</v>
+        <v>295.5003820504508</v>
       </c>
       <c r="L18" t="n">
         <v>162.44176590994</v>
       </c>
       <c r="M18" t="n">
-        <v>335.8151578977945</v>
+        <v>202.2709337943684</v>
       </c>
       <c r="N18" t="n">
-        <v>280.8512662402405</v>
+        <v>217.0846649452864</v>
       </c>
       <c r="O18" t="n">
         <v>184.001303069777</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>38.85484627114975</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>29.41345178404549</v>
       </c>
       <c r="L19" t="n">
-        <v>57.2742112900346</v>
+        <v>299.6820239218249</v>
       </c>
       <c r="M19" t="n">
         <v>335.8151578977945</v>
       </c>
       <c r="N19" t="n">
-        <v>242.0815311677713</v>
+        <v>334.2347720502987</v>
       </c>
       <c r="O19" t="n">
         <v>302.1537376482999</v>
       </c>
       <c r="P19" t="n">
-        <v>239.0034378508269</v>
+        <v>28.39319908092281</v>
       </c>
       <c r="Q19" t="n">
-        <v>85.09596847326392</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>27.42622262042673</v>
+        <v>224.1282377514645</v>
       </c>
       <c r="K21" t="n">
         <v>98.18955665207049</v>
       </c>
       <c r="L21" t="n">
-        <v>162.44176590994</v>
+        <v>211.5759134513745</v>
       </c>
       <c r="M21" t="n">
         <v>202.2709337943684</v>
@@ -36220,10 +36220,10 @@
         <v>134.9838402234784</v>
       </c>
       <c r="Q21" t="n">
-        <v>254.7687178937466</v>
+        <v>57.45789249536649</v>
       </c>
       <c r="R21" t="n">
-        <v>48.52533727409239</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>38.85484627114975</v>
       </c>
       <c r="K22" t="n">
-        <v>29.41345178404549</v>
+        <v>195.9337272817035</v>
       </c>
       <c r="L22" t="n">
         <v>310.7347456948595</v>
       </c>
       <c r="M22" t="n">
-        <v>62.52690209483517</v>
+        <v>335.8151578977944</v>
       </c>
       <c r="N22" t="n">
-        <v>261.9092525659058</v>
+        <v>117.8069285084563</v>
       </c>
       <c r="O22" t="n">
         <v>302.1537376482999</v>
       </c>
       <c r="P22" t="n">
-        <v>239.0034378508269</v>
+        <v>28.39319908092281</v>
       </c>
       <c r="Q22" t="n">
-        <v>85.09596847326392</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>27.42622262042673</v>
       </c>
       <c r="K24" t="n">
-        <v>98.18955665207049</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="L24" t="n">
         <v>162.44176590994</v>
@@ -36457,7 +36457,7 @@
         <v>134.9838402234784</v>
       </c>
       <c r="Q24" t="n">
-        <v>303.2940551678389</v>
+        <v>65.66845392211496</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>38.85484627114975</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>29.41345178404549</v>
       </c>
       <c r="L25" t="n">
-        <v>310.7347456948595</v>
+        <v>299.6820239218249</v>
       </c>
       <c r="M25" t="n">
         <v>335.8151578977945</v>
@@ -36530,10 +36530,10 @@
         <v>334.2347720502987</v>
       </c>
       <c r="O25" t="n">
-        <v>47.80873811752325</v>
+        <v>302.1537376482999</v>
       </c>
       <c r="P25" t="n">
-        <v>232.8306305675153</v>
+        <v>28.39319908092281</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>99.88899330504503</v>
+        <v>27.42622262042673</v>
       </c>
       <c r="K27" t="n">
         <v>98.18955665207049</v>
       </c>
       <c r="L27" t="n">
-        <v>335.8151578977946</v>
+        <v>162.44176590994</v>
       </c>
       <c r="M27" t="n">
         <v>202.2709337943684</v>
@@ -36694,7 +36694,7 @@
         <v>134.9838402234784</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.45789249536649</v>
+        <v>303.2940551678389</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36758,22 +36758,22 @@
         <v>29.41345178404549</v>
       </c>
       <c r="L28" t="n">
-        <v>310.7347456948595</v>
+        <v>299.6820239218249</v>
       </c>
       <c r="M28" t="n">
-        <v>62.52690209483517</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7640988370559</v>
+        <v>334.2347720502987</v>
       </c>
       <c r="O28" t="n">
         <v>302.1537376482999</v>
       </c>
       <c r="P28" t="n">
-        <v>239.0034378508269</v>
+        <v>28.39319908092281</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.09596847326392</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>224.1282377514645</v>
+        <v>27.42622262042673</v>
       </c>
       <c r="K30" t="n">
         <v>98.18955665207049</v>
@@ -36925,13 +36925,13 @@
         <v>217.0846649452864</v>
       </c>
       <c r="O30" t="n">
-        <v>233.1354506112121</v>
+        <v>184.001303069777</v>
       </c>
       <c r="P30" t="n">
         <v>134.9838402234784</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.45789249536649</v>
+        <v>303.2940551678389</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36995,10 +36995,10 @@
         <v>29.41345178404549</v>
       </c>
       <c r="L31" t="n">
-        <v>299.6820239218252</v>
+        <v>310.7347456948595</v>
       </c>
       <c r="M31" t="n">
-        <v>335.8151578977946</v>
+        <v>324.7624361247599</v>
       </c>
       <c r="N31" t="n">
         <v>334.2347720502987</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>154.5318923403911</v>
+        <v>224.1282377514645</v>
       </c>
       <c r="K33" t="n">
-        <v>98.18955665207049</v>
+        <v>98.79836691941298</v>
       </c>
       <c r="L33" t="n">
         <v>162.44176590994</v>
@@ -37159,7 +37159,7 @@
         <v>202.2709337943684</v>
       </c>
       <c r="N33" t="n">
-        <v>335.8151578977945</v>
+        <v>217.0846649452864</v>
       </c>
       <c r="O33" t="n">
         <v>184.001303069777</v>
@@ -37171,7 +37171,7 @@
         <v>57.45789249536649</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>48.52533727409239</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37238,10 +37238,10 @@
         <v>335.8151578977945</v>
       </c>
       <c r="N34" t="n">
-        <v>76.44572079606499</v>
+        <v>66.19913377293832</v>
       </c>
       <c r="O34" t="n">
-        <v>47.80873811752325</v>
+        <v>58.05532514064997</v>
       </c>
       <c r="P34" t="n">
         <v>239.0034378508269</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>38.85484627114975</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>195.9337272817035</v>
+        <v>29.41345178404549</v>
       </c>
       <c r="L37" t="n">
-        <v>263.5559332105299</v>
+        <v>310.7347456948595</v>
       </c>
       <c r="M37" t="n">
         <v>335.8151578977945</v>
       </c>
       <c r="N37" t="n">
-        <v>334.2347720502987</v>
+        <v>112.5718115073601</v>
       </c>
       <c r="O37" t="n">
-        <v>47.80873811752325</v>
+        <v>302.1537376482999</v>
       </c>
       <c r="P37" t="n">
-        <v>28.39319908092281</v>
+        <v>239.0034378508269</v>
       </c>
       <c r="Q37" t="n">
-        <v>85.09596847326392</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>184.001303069777</v>
       </c>
       <c r="P39" t="n">
-        <v>184.117987764913</v>
+        <v>134.9838402234784</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.45789249536649</v>
+        <v>58.06670276270903</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>48.52533727409239</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,13 +37706,13 @@
         <v>29.41345178404549</v>
       </c>
       <c r="L40" t="n">
-        <v>299.6820239218249</v>
+        <v>310.7347456948595</v>
       </c>
       <c r="M40" t="n">
-        <v>335.8151578977945</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="N40" t="n">
-        <v>334.2347720502987</v>
+        <v>323.1820502772642</v>
       </c>
       <c r="O40" t="n">
         <v>302.1537376482999</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>224.1282377514645</v>
+        <v>27.42622262042673</v>
       </c>
       <c r="K42" t="n">
         <v>98.18955665207049</v>
@@ -37873,13 +37873,13 @@
         <v>217.0846649452864</v>
       </c>
       <c r="O42" t="n">
-        <v>184.6101133371198</v>
+        <v>184.001303069777</v>
       </c>
       <c r="P42" t="n">
         <v>134.9838402234784</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.45789249536649</v>
+        <v>254.7687178937466</v>
       </c>
       <c r="R42" t="n">
         <v>48.52533727409239</v>
@@ -37943,19 +37943,19 @@
         <v>195.9337272817035</v>
       </c>
       <c r="L43" t="n">
-        <v>282.4991894827129</v>
+        <v>310.7347456948595</v>
       </c>
       <c r="M43" t="n">
         <v>62.52690209483517</v>
       </c>
       <c r="N43" t="n">
-        <v>334.2347720502987</v>
+        <v>95.38897706824784</v>
       </c>
       <c r="O43" t="n">
         <v>302.1537376482999</v>
       </c>
       <c r="P43" t="n">
-        <v>28.39319908092281</v>
+        <v>239.0034378508269</v>
       </c>
       <c r="Q43" t="n">
         <v>85.09596847326392</v>
@@ -38037,7 +38037,7 @@
         <v>162.2499095643197</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.21435402171099</v>
+        <v>90.2143540217107</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>27.42622262042673</v>
+        <v>224.1282377514645</v>
       </c>
       <c r="K45" t="n">
-        <v>98.18955665207049</v>
+        <v>147.3237041935052</v>
       </c>
       <c r="L45" t="n">
-        <v>207.9387364803026</v>
+        <v>162.44176590994</v>
       </c>
       <c r="M45" t="n">
         <v>202.2709337943684</v>
@@ -38110,7 +38110,7 @@
         <v>217.0846649452864</v>
       </c>
       <c r="O45" t="n">
-        <v>335.8151578977945</v>
+        <v>184.001303069777</v>
       </c>
       <c r="P45" t="n">
         <v>134.9838402234784</v>
@@ -38119,7 +38119,7 @@
         <v>57.45789249536649</v>
       </c>
       <c r="R45" t="n">
-        <v>48.52533727409239</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38186,16 +38186,16 @@
         <v>335.8151578977945</v>
       </c>
       <c r="N46" t="n">
-        <v>334.2347720502987</v>
+        <v>66.19913377293832</v>
       </c>
       <c r="O46" t="n">
-        <v>47.80873811752325</v>
+        <v>58.05532514064997</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39319908092281</v>
+        <v>239.0034378508269</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.91715598893443</v>
+        <v>85.09596847326392</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
